--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220524.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220524.xlsx
@@ -2297,13 +2297,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2331,7 +2331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,44 +2339,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,71 +2352,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2475,13 +2377,111 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,12 +2514,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2532,7 +2526,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2550,49 +2658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,85 +2694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2694,25 +2706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2744,32 +2738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2804,15 +2774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2838,151 +2799,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3009,38 +3003,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3095,7 +3089,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3439,15 +3441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AO251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3524,7 +3526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" hidden="1" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3599,7 +3601,7 @@
       <c r="AN2" s="18"/>
       <c r="AO2" s="19"/>
     </row>
-    <row r="3" ht="41" spans="1:41">
+    <row r="3" ht="41" hidden="1" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3680,7 +3682,7 @@
       <c r="AN3" s="18"/>
       <c r="AO3" s="19"/>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" hidden="1" spans="1:41">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -3737,7 +3739,7 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" hidden="1" spans="1:41">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -3794,7 +3796,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" ht="28" spans="1:41">
+    <row r="6" hidden="1" spans="1:41">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3851,7 +3853,7 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" ht="28" spans="1:41">
+    <row r="7" hidden="1" spans="1:41">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -3908,7 +3910,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" ht="55" spans="1:41">
+    <row r="8" hidden="1" spans="1:41">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -3965,7 +3967,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" ht="28" spans="1:41">
+    <row r="9" hidden="1" spans="1:41">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4022,7 +4024,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" hidden="1" spans="1:41">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4079,7 +4081,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" hidden="1" spans="1:41">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -4136,7 +4138,7 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" hidden="1" spans="1:41">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -4193,7 +4195,7 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" hidden="1" spans="1:41">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -4250,7 +4252,7 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" hidden="1" spans="1:41">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4309,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" hidden="1" spans="1:41">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -4364,7 +4366,7 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" ht="55" spans="1:41">
+    <row r="16" hidden="1" spans="1:41">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -4421,7 +4423,7 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" hidden="1" spans="1:41">
       <c r="A17" s="4" t="s">
         <v>84</v>
       </c>
@@ -4478,7 +4480,7 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" hidden="1" spans="1:41">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -4535,7 +4537,7 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" hidden="1" spans="1:41">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -4592,7 +4594,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" hidden="1" spans="1:41">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -4649,7 +4651,7 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" hidden="1" spans="1:41">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" ht="41" spans="1:41">
+    <row r="22" hidden="1" spans="1:41">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -4763,7 +4765,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" hidden="1" spans="1:41">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -4820,7 +4822,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24" ht="28" spans="1:41">
+    <row r="24" hidden="1" spans="1:41">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -4877,7 +4879,7 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" hidden="1" spans="1:41">
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
@@ -4934,7 +4936,7 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" hidden="1" spans="1:41">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -4991,7 +4993,7 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27" ht="28" spans="1:41">
+    <row r="27" hidden="1" spans="1:41">
       <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
@@ -5048,7 +5050,7 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" ht="28" spans="1:41">
+    <row r="28" hidden="1" spans="1:41">
       <c r="A28" s="4" t="s">
         <v>114</v>
       </c>
@@ -5105,7 +5107,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" hidden="1" spans="1:41">
       <c r="A29" s="4" t="s">
         <v>117</v>
       </c>
@@ -5219,7 +5221,7 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" hidden="1" spans="1:41">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
@@ -5276,7 +5278,7 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" hidden="1" spans="1:41">
       <c r="A32" s="4" t="s">
         <v>125</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
     </row>
-    <row r="33" ht="28" spans="1:41">
+    <row r="33" hidden="1" spans="1:41">
       <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
@@ -5390,7 +5392,7 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" hidden="1" spans="1:41">
       <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
@@ -5447,7 +5449,7 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
     </row>
-    <row r="35" ht="55" spans="1:41">
+    <row r="35" hidden="1" spans="1:41">
       <c r="A35" s="4" t="s">
         <v>134</v>
       </c>
@@ -5504,7 +5506,7 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
     </row>
-    <row r="36" ht="28" spans="1:41">
+    <row r="36" hidden="1" spans="1:41">
       <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
@@ -5561,7 +5563,7 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
     </row>
-    <row r="37" ht="41" spans="1:41">
+    <row r="37" hidden="1" spans="1:41">
       <c r="A37" s="4" t="s">
         <v>140</v>
       </c>
@@ -5618,7 +5620,7 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" hidden="1" spans="1:41">
       <c r="A38" s="4" t="s">
         <v>143</v>
       </c>
@@ -5675,7 +5677,7 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" hidden="1" spans="1:41">
       <c r="A39" s="4" t="s">
         <v>146</v>
       </c>
@@ -5732,7 +5734,7 @@
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" hidden="1" spans="1:41">
       <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
@@ -5789,7 +5791,7 @@
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" hidden="1" spans="1:41">
       <c r="A41" s="4" t="s">
         <v>150</v>
       </c>
@@ -5903,7 +5905,7 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" hidden="1" spans="1:41">
       <c r="A43" s="4" t="s">
         <v>156</v>
       </c>
@@ -5960,7 +5962,7 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" hidden="1" spans="1:41">
       <c r="A44" s="4" t="s">
         <v>159</v>
       </c>
@@ -6017,7 +6019,7 @@
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" hidden="1" spans="1:41">
       <c r="A45" s="4" t="s">
         <v>161</v>
       </c>
@@ -6074,7 +6076,7 @@
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
     </row>
-    <row r="46" ht="41" spans="1:41">
+    <row r="46" hidden="1" spans="1:41">
       <c r="A46" s="4" t="s">
         <v>163</v>
       </c>
@@ -6131,7 +6133,7 @@
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
     </row>
-    <row r="47" ht="28" spans="1:41">
+    <row r="47" hidden="1" spans="1:41">
       <c r="A47" s="4" t="s">
         <v>166</v>
       </c>
@@ -6188,7 +6190,7 @@
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
     </row>
-    <row r="48" ht="28" spans="1:41">
+    <row r="48" hidden="1" spans="1:41">
       <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
@@ -6245,7 +6247,7 @@
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" hidden="1" spans="1:41">
       <c r="A49" s="4" t="s">
         <v>171</v>
       </c>
@@ -6302,7 +6304,7 @@
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
     </row>
-    <row r="50" ht="41" spans="1:41">
+    <row r="50" hidden="1" spans="1:41">
       <c r="A50" s="4" t="s">
         <v>174</v>
       </c>
@@ -6359,7 +6361,7 @@
       <c r="AN50" s="9"/>
       <c r="AO50" s="9"/>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" hidden="1" spans="1:41">
       <c r="A51" s="4" t="s">
         <v>176</v>
       </c>
@@ -6416,7 +6418,7 @@
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" hidden="1" spans="1:41">
       <c r="A52" s="4" t="s">
         <v>178</v>
       </c>
@@ -6473,7 +6475,7 @@
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
     </row>
-    <row r="53" ht="28" spans="1:41">
+    <row r="53" hidden="1" spans="1:41">
       <c r="A53" s="4" t="s">
         <v>181</v>
       </c>
@@ -6530,7 +6532,7 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
     </row>
-    <row r="54" ht="55" spans="1:41">
+    <row r="54" hidden="1" spans="1:41">
       <c r="A54" s="4" t="s">
         <v>183</v>
       </c>
@@ -6587,7 +6589,7 @@
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" hidden="1" spans="1:41">
       <c r="A55" s="4" t="s">
         <v>185</v>
       </c>
@@ -6644,7 +6646,7 @@
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
     </row>
-    <row r="56" ht="41" spans="1:41">
+    <row r="56" hidden="1" spans="1:41">
       <c r="A56" s="4" t="s">
         <v>187</v>
       </c>
@@ -6701,7 +6703,7 @@
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" hidden="1" spans="1:41">
       <c r="A57" s="4" t="s">
         <v>190</v>
       </c>
@@ -6758,7 +6760,7 @@
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
     </row>
-    <row r="58" ht="41" spans="1:41">
+    <row r="58" hidden="1" spans="1:41">
       <c r="A58" s="4" t="s">
         <v>193</v>
       </c>
@@ -6815,7 +6817,7 @@
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
     </row>
-    <row r="59" ht="28" spans="1:41">
+    <row r="59" hidden="1" spans="1:41">
       <c r="A59" s="4" t="s">
         <v>195</v>
       </c>
@@ -6872,7 +6874,7 @@
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" hidden="1" spans="1:41">
       <c r="A60" s="4" t="s">
         <v>197</v>
       </c>
@@ -6929,7 +6931,7 @@
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" hidden="1" spans="1:41">
       <c r="A61" s="4" t="s">
         <v>199</v>
       </c>
@@ -6986,7 +6988,7 @@
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" hidden="1" spans="1:41">
       <c r="A62" s="4" t="s">
         <v>202</v>
       </c>
@@ -7043,7 +7045,7 @@
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
     </row>
-    <row r="63" ht="28" spans="1:41">
+    <row r="63" hidden="1" spans="1:41">
       <c r="A63" s="4" t="s">
         <v>204</v>
       </c>
@@ -7100,7 +7102,7 @@
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" hidden="1" spans="1:41">
       <c r="A64" s="4" t="s">
         <v>207</v>
       </c>
@@ -7157,7 +7159,7 @@
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
     </row>
-    <row r="65" ht="55" spans="1:41">
+    <row r="65" hidden="1" spans="1:41">
       <c r="A65" s="4" t="s">
         <v>210</v>
       </c>
@@ -7214,7 +7216,7 @@
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" hidden="1" spans="1:41">
       <c r="A66" s="4" t="s">
         <v>213</v>
       </c>
@@ -7271,7 +7273,7 @@
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" hidden="1" spans="1:41">
       <c r="A67" s="4" t="s">
         <v>216</v>
       </c>
@@ -7328,7 +7330,7 @@
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" hidden="1" spans="1:41">
       <c r="A68" s="4" t="s">
         <v>219</v>
       </c>
@@ -7385,7 +7387,7 @@
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" hidden="1" spans="1:41">
       <c r="A69" s="4" t="s">
         <v>221</v>
       </c>
@@ -7442,7 +7444,7 @@
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" hidden="1" spans="1:41">
       <c r="A70" s="4" t="s">
         <v>224</v>
       </c>
@@ -7499,7 +7501,7 @@
       <c r="AN70" s="9"/>
       <c r="AO70" s="9"/>
     </row>
-    <row r="71" ht="28" spans="1:41">
+    <row r="71" hidden="1" spans="1:41">
       <c r="A71" s="4" t="s">
         <v>227</v>
       </c>
@@ -7556,7 +7558,7 @@
       <c r="AN71" s="9"/>
       <c r="AO71" s="9"/>
     </row>
-    <row r="72" ht="28" spans="1:41">
+    <row r="72" hidden="1" spans="1:41">
       <c r="A72" s="4" t="s">
         <v>229</v>
       </c>
@@ -7613,7 +7615,7 @@
       <c r="AN72" s="9"/>
       <c r="AO72" s="9"/>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" hidden="1" spans="1:41">
       <c r="A73" s="4" t="s">
         <v>231</v>
       </c>
@@ -7670,7 +7672,7 @@
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" hidden="1" spans="1:41">
       <c r="A74" s="4" t="s">
         <v>233</v>
       </c>
@@ -7727,7 +7729,7 @@
       <c r="AN74" s="9"/>
       <c r="AO74" s="9"/>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" hidden="1" spans="1:41">
       <c r="A75" s="4" t="s">
         <v>236</v>
       </c>
@@ -7784,7 +7786,7 @@
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" hidden="1" spans="1:41">
       <c r="A76" s="4" t="s">
         <v>239</v>
       </c>
@@ -7841,7 +7843,7 @@
       <c r="AN76" s="9"/>
       <c r="AO76" s="9"/>
     </row>
-    <row r="77" ht="28" spans="1:41">
+    <row r="77" hidden="1" spans="1:41">
       <c r="A77" s="4" t="s">
         <v>242</v>
       </c>
@@ -7898,7 +7900,7 @@
       <c r="AN77" s="9"/>
       <c r="AO77" s="9"/>
     </row>
-    <row r="78" ht="41" spans="1:41">
+    <row r="78" hidden="1" spans="1:41">
       <c r="A78" s="4" t="s">
         <v>245</v>
       </c>
@@ -7955,7 +7957,7 @@
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" hidden="1" spans="1:41">
       <c r="A79" s="4" t="s">
         <v>247</v>
       </c>
@@ -8012,7 +8014,7 @@
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" hidden="1" spans="1:41">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -8069,7 +8071,7 @@
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" hidden="1" spans="1:41">
       <c r="A81" s="4" t="s">
         <v>253</v>
       </c>
@@ -8126,7 +8128,7 @@
       <c r="AN81" s="9"/>
       <c r="AO81" s="9"/>
     </row>
-    <row r="82" ht="28" spans="1:41">
+    <row r="82" hidden="1" spans="1:41">
       <c r="A82" s="4" t="s">
         <v>256</v>
       </c>
@@ -8183,7 +8185,7 @@
       <c r="AN82" s="9"/>
       <c r="AO82" s="9"/>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" hidden="1" spans="1:41">
       <c r="A83" s="4" t="s">
         <v>258</v>
       </c>
@@ -8240,7 +8242,7 @@
       <c r="AN83" s="9"/>
       <c r="AO83" s="9"/>
     </row>
-    <row r="84" ht="41" spans="1:41">
+    <row r="84" hidden="1" spans="1:41">
       <c r="A84" s="4" t="s">
         <v>261</v>
       </c>
@@ -8297,7 +8299,7 @@
       <c r="AN84" s="9"/>
       <c r="AO84" s="9"/>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" hidden="1" spans="1:41">
       <c r="A85" s="4" t="s">
         <v>264</v>
       </c>
@@ -8354,7 +8356,7 @@
       <c r="AN85" s="9"/>
       <c r="AO85" s="9"/>
     </row>
-    <row r="86" ht="41" spans="1:41">
+    <row r="86" hidden="1" spans="1:41">
       <c r="A86" s="4" t="s">
         <v>267</v>
       </c>
@@ -8411,7 +8413,7 @@
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
     </row>
-    <row r="87" ht="28" spans="1:41">
+    <row r="87" hidden="1" spans="1:41">
       <c r="A87" s="4" t="s">
         <v>269</v>
       </c>
@@ -8468,7 +8470,7 @@
       <c r="AN87" s="9"/>
       <c r="AO87" s="9"/>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" hidden="1" spans="1:41">
       <c r="A88" s="4" t="s">
         <v>272</v>
       </c>
@@ -8525,7 +8527,7 @@
       <c r="AN88" s="9"/>
       <c r="AO88" s="9"/>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" hidden="1" spans="1:41">
       <c r="A89" s="4" t="s">
         <v>274</v>
       </c>
@@ -8582,7 +8584,7 @@
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
     </row>
-    <row r="90" ht="41" spans="1:41">
+    <row r="90" hidden="1" spans="1:41">
       <c r="A90" s="4" t="s">
         <v>276</v>
       </c>
@@ -8639,7 +8641,7 @@
       <c r="AN90" s="9"/>
       <c r="AO90" s="9"/>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" hidden="1" spans="1:41">
       <c r="A91" s="4" t="s">
         <v>278</v>
       </c>
@@ -8696,7 +8698,7 @@
       <c r="AN91" s="9"/>
       <c r="AO91" s="9"/>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" hidden="1" spans="1:41">
       <c r="A92" s="4" t="s">
         <v>281</v>
       </c>
@@ -8753,7 +8755,7 @@
       <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" hidden="1" spans="1:41">
       <c r="A93" s="4" t="s">
         <v>283</v>
       </c>
@@ -8810,7 +8812,7 @@
       <c r="AN93" s="9"/>
       <c r="AO93" s="9"/>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" hidden="1" spans="1:41">
       <c r="A94" s="4" t="s">
         <v>285</v>
       </c>
@@ -8867,7 +8869,7 @@
       <c r="AN94" s="9"/>
       <c r="AO94" s="9"/>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" hidden="1" spans="1:41">
       <c r="A95" s="4" t="s">
         <v>287</v>
       </c>
@@ -8924,7 +8926,7 @@
       <c r="AN95" s="9"/>
       <c r="AO95" s="9"/>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" hidden="1" spans="1:41">
       <c r="A96" s="4" t="s">
         <v>289</v>
       </c>
@@ -8981,7 +8983,7 @@
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" hidden="1" spans="1:41">
       <c r="A97" s="4" t="s">
         <v>291</v>
       </c>
@@ -9038,7 +9040,7 @@
       <c r="AN97" s="9"/>
       <c r="AO97" s="9"/>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" hidden="1" spans="1:41">
       <c r="A98" s="4" t="s">
         <v>293</v>
       </c>
@@ -9095,7 +9097,7 @@
       <c r="AN98" s="9"/>
       <c r="AO98" s="9"/>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" hidden="1" spans="1:41">
       <c r="A99" s="4" t="s">
         <v>295</v>
       </c>
@@ -9152,7 +9154,7 @@
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
     </row>
-    <row r="100" ht="28" spans="1:41">
+    <row r="100" hidden="1" spans="1:41">
       <c r="A100" s="4" t="s">
         <v>297</v>
       </c>
@@ -9209,7 +9211,7 @@
       <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
     </row>
-    <row r="101" ht="28" spans="1:41">
+    <row r="101" hidden="1" spans="1:41">
       <c r="A101" s="4" t="s">
         <v>300</v>
       </c>
@@ -9266,7 +9268,7 @@
       <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
     </row>
-    <row r="102" ht="55" spans="1:41">
+    <row r="102" hidden="1" spans="1:41">
       <c r="A102" s="4" t="s">
         <v>302</v>
       </c>
@@ -9323,7 +9325,7 @@
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
     </row>
-    <row r="103" ht="41" spans="1:41">
+    <row r="103" hidden="1" spans="1:41">
       <c r="A103" s="4" t="s">
         <v>304</v>
       </c>
@@ -9380,7 +9382,7 @@
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" hidden="1" spans="1:41">
       <c r="A104" s="4" t="s">
         <v>307</v>
       </c>
@@ -9437,7 +9439,7 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9"/>
     </row>
-    <row r="105" ht="41" spans="1:41">
+    <row r="105" hidden="1" spans="1:41">
       <c r="A105" s="4" t="s">
         <v>310</v>
       </c>
@@ -9494,7 +9496,7 @@
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" hidden="1" spans="1:41">
       <c r="A106" s="4" t="s">
         <v>312</v>
       </c>
@@ -9551,7 +9553,7 @@
       <c r="AN106" s="9"/>
       <c r="AO106" s="9"/>
     </row>
-    <row r="107" ht="55" spans="1:41">
+    <row r="107" hidden="1" spans="1:41">
       <c r="A107" s="4" t="s">
         <v>315</v>
       </c>
@@ -9608,7 +9610,7 @@
       <c r="AN107" s="9"/>
       <c r="AO107" s="9"/>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" hidden="1" spans="1:41">
       <c r="A108" s="4" t="s">
         <v>318</v>
       </c>
@@ -9665,7 +9667,7 @@
       <c r="AN108" s="9"/>
       <c r="AO108" s="9"/>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" hidden="1" spans="1:41">
       <c r="A109" s="4" t="s">
         <v>320</v>
       </c>
@@ -9779,7 +9781,7 @@
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" hidden="1" spans="1:41">
       <c r="A111" s="4" t="s">
         <v>324</v>
       </c>
@@ -9836,7 +9838,7 @@
       <c r="AN111" s="9"/>
       <c r="AO111" s="9"/>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" hidden="1" spans="1:41">
       <c r="A112" s="4" t="s">
         <v>327</v>
       </c>
@@ -9893,7 +9895,7 @@
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
     </row>
-    <row r="113" ht="41" spans="1:41">
+    <row r="113" hidden="1" spans="1:41">
       <c r="A113" s="4" t="s">
         <v>329</v>
       </c>
@@ -9950,7 +9952,7 @@
       <c r="AN113" s="9"/>
       <c r="AO113" s="9"/>
     </row>
-    <row r="114" ht="28" spans="1:41">
+    <row r="114" hidden="1" spans="1:41">
       <c r="A114" s="4" t="s">
         <v>332</v>
       </c>
@@ -10007,7 +10009,7 @@
       <c r="AN114" s="9"/>
       <c r="AO114" s="9"/>
     </row>
-    <row r="115" ht="28" spans="1:41">
+    <row r="115" hidden="1" spans="1:41">
       <c r="A115" s="4" t="s">
         <v>334</v>
       </c>
@@ -10064,7 +10066,7 @@
       <c r="AN115" s="9"/>
       <c r="AO115" s="9"/>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" hidden="1" spans="1:41">
       <c r="A116" s="4" t="s">
         <v>336</v>
       </c>
@@ -10121,7 +10123,7 @@
       <c r="AN116" s="9"/>
       <c r="AO116" s="9"/>
     </row>
-    <row r="117" ht="41" spans="1:41">
+    <row r="117" hidden="1" spans="1:41">
       <c r="A117" s="4" t="s">
         <v>339</v>
       </c>
@@ -10178,7 +10180,7 @@
       <c r="AN117" s="9"/>
       <c r="AO117" s="9"/>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" hidden="1" spans="1:41">
       <c r="A118" s="4" t="s">
         <v>341</v>
       </c>
@@ -10235,7 +10237,7 @@
       <c r="AN118" s="9"/>
       <c r="AO118" s="9"/>
     </row>
-    <row r="119" ht="28" spans="1:41">
+    <row r="119" hidden="1" spans="1:41">
       <c r="A119" s="4" t="s">
         <v>343</v>
       </c>
@@ -10292,7 +10294,7 @@
       <c r="AN119" s="9"/>
       <c r="AO119" s="9"/>
     </row>
-    <row r="120" ht="55" spans="1:41">
+    <row r="120" hidden="1" spans="1:41">
       <c r="A120" s="4" t="s">
         <v>346</v>
       </c>
@@ -10349,7 +10351,7 @@
       <c r="AN120" s="9"/>
       <c r="AO120" s="9"/>
     </row>
-    <row r="121" ht="28" spans="1:41">
+    <row r="121" hidden="1" spans="1:41">
       <c r="A121" s="4" t="s">
         <v>348</v>
       </c>
@@ -10406,7 +10408,7 @@
       <c r="AN121" s="9"/>
       <c r="AO121" s="9"/>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" hidden="1" spans="1:41">
       <c r="A122" s="4" t="s">
         <v>350</v>
       </c>
@@ -10463,7 +10465,7 @@
       <c r="AN122" s="9"/>
       <c r="AO122" s="9"/>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" hidden="1" spans="1:41">
       <c r="A123" s="4" t="s">
         <v>352</v>
       </c>
@@ -10520,7 +10522,7 @@
       <c r="AN123" s="9"/>
       <c r="AO123" s="9"/>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" hidden="1" spans="1:41">
       <c r="A124" s="4" t="s">
         <v>354</v>
       </c>
@@ -10577,7 +10579,7 @@
       <c r="AN124" s="9"/>
       <c r="AO124" s="9"/>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" hidden="1" spans="1:41">
       <c r="A125" s="4" t="s">
         <v>357</v>
       </c>
@@ -10634,7 +10636,7 @@
       <c r="AN125" s="9"/>
       <c r="AO125" s="9"/>
     </row>
-    <row r="126" ht="41" spans="1:41">
+    <row r="126" hidden="1" spans="1:41">
       <c r="A126" s="4" t="s">
         <v>359</v>
       </c>
@@ -10691,7 +10693,7 @@
       <c r="AN126" s="9"/>
       <c r="AO126" s="9"/>
     </row>
-    <row r="127" ht="41" spans="1:41">
+    <row r="127" hidden="1" spans="1:41">
       <c r="A127" s="4" t="s">
         <v>362</v>
       </c>
@@ -10748,7 +10750,7 @@
       <c r="AN127" s="9"/>
       <c r="AO127" s="9"/>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" hidden="1" spans="1:41">
       <c r="A128" s="4" t="s">
         <v>364</v>
       </c>
@@ -10805,7 +10807,7 @@
       <c r="AN128" s="9"/>
       <c r="AO128" s="9"/>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" hidden="1" spans="1:41">
       <c r="A129" s="4" t="s">
         <v>366</v>
       </c>
@@ -10862,7 +10864,7 @@
       <c r="AN129" s="9"/>
       <c r="AO129" s="9"/>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" hidden="1" spans="1:41">
       <c r="A130" s="4" t="s">
         <v>368</v>
       </c>
@@ -10919,7 +10921,7 @@
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" hidden="1" spans="1:41">
       <c r="A131" s="4" t="s">
         <v>370</v>
       </c>
@@ -10976,7 +10978,7 @@
       <c r="AN131" s="9"/>
       <c r="AO131" s="9"/>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" hidden="1" spans="1:41">
       <c r="A132" s="4" t="s">
         <v>372</v>
       </c>
@@ -11033,7 +11035,7 @@
       <c r="AN132" s="9"/>
       <c r="AO132" s="9"/>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" hidden="1" spans="1:41">
       <c r="A133" s="4" t="s">
         <v>375</v>
       </c>
@@ -11090,7 +11092,7 @@
       <c r="AN133" s="9"/>
       <c r="AO133" s="9"/>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" hidden="1" spans="1:41">
       <c r="A134" s="4" t="s">
         <v>377</v>
       </c>
@@ -11147,7 +11149,7 @@
       <c r="AN134" s="9"/>
       <c r="AO134" s="9"/>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" hidden="1" spans="1:41">
       <c r="A135" s="4" t="s">
         <v>379</v>
       </c>
@@ -11204,7 +11206,7 @@
       <c r="AN135" s="9"/>
       <c r="AO135" s="9"/>
     </row>
-    <row r="136" ht="28" spans="1:41">
+    <row r="136" hidden="1" spans="1:41">
       <c r="A136" s="4" t="s">
         <v>382</v>
       </c>
@@ -11261,7 +11263,7 @@
       <c r="AN136" s="9"/>
       <c r="AO136" s="9"/>
     </row>
-    <row r="137" ht="55" spans="1:41">
+    <row r="137" hidden="1" spans="1:41">
       <c r="A137" s="4" t="s">
         <v>385</v>
       </c>
@@ -11318,7 +11320,7 @@
       <c r="AN137" s="9"/>
       <c r="AO137" s="9"/>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" hidden="1" spans="1:41">
       <c r="A138" s="4" t="s">
         <v>388</v>
       </c>
@@ -11375,7 +11377,7 @@
       <c r="AN138" s="9"/>
       <c r="AO138" s="9"/>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" hidden="1" spans="1:41">
       <c r="A139" s="4" t="s">
         <v>390</v>
       </c>
@@ -11432,7 +11434,7 @@
       <c r="AN139" s="9"/>
       <c r="AO139" s="9"/>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" hidden="1" spans="1:41">
       <c r="A140" s="4" t="s">
         <v>392</v>
       </c>
@@ -11489,7 +11491,7 @@
       <c r="AN140" s="9"/>
       <c r="AO140" s="9"/>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" hidden="1" spans="1:41">
       <c r="A141" s="4" t="s">
         <v>394</v>
       </c>
@@ -11546,7 +11548,7 @@
       <c r="AN141" s="9"/>
       <c r="AO141" s="9"/>
     </row>
-    <row r="142" ht="28" spans="1:41">
+    <row r="142" hidden="1" spans="1:41">
       <c r="A142" s="4" t="s">
         <v>396</v>
       </c>
@@ -11603,7 +11605,7 @@
       <c r="AN142" s="9"/>
       <c r="AO142" s="9"/>
     </row>
-    <row r="143" ht="41" spans="1:41">
+    <row r="143" hidden="1" spans="1:41">
       <c r="A143" s="4" t="s">
         <v>399</v>
       </c>
@@ -11660,7 +11662,7 @@
       <c r="AN143" s="9"/>
       <c r="AO143" s="9"/>
     </row>
-    <row r="144" ht="28" spans="1:41">
+    <row r="144" hidden="1" spans="1:41">
       <c r="A144" s="4" t="s">
         <v>401</v>
       </c>
@@ -11717,7 +11719,7 @@
       <c r="AN144" s="9"/>
       <c r="AO144" s="9"/>
     </row>
-    <row r="145" ht="28" spans="1:41">
+    <row r="145" hidden="1" spans="1:41">
       <c r="A145" s="4" t="s">
         <v>403</v>
       </c>
@@ -11774,7 +11776,7 @@
       <c r="AN145" s="9"/>
       <c r="AO145" s="9"/>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" hidden="1" spans="1:41">
       <c r="A146" s="4" t="s">
         <v>405</v>
       </c>
@@ -11831,7 +11833,7 @@
       <c r="AN146" s="9"/>
       <c r="AO146" s="9"/>
     </row>
-    <row r="147" ht="41" spans="1:41">
+    <row r="147" hidden="1" spans="1:41">
       <c r="A147" s="4" t="s">
         <v>407</v>
       </c>
@@ -11888,7 +11890,7 @@
       <c r="AN147" s="9"/>
       <c r="AO147" s="9"/>
     </row>
-    <row r="148" ht="41" spans="1:41">
+    <row r="148" hidden="1" spans="1:41">
       <c r="A148" s="4" t="s">
         <v>409</v>
       </c>
@@ -11945,7 +11947,7 @@
       <c r="AN148" s="9"/>
       <c r="AO148" s="9"/>
     </row>
-    <row r="149" ht="41" spans="1:41">
+    <row r="149" hidden="1" spans="1:41">
       <c r="A149" s="4" t="s">
         <v>412</v>
       </c>
@@ -12002,7 +12004,7 @@
       <c r="AN149" s="9"/>
       <c r="AO149" s="9"/>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" hidden="1" spans="1:41">
       <c r="A150" s="4" t="s">
         <v>414</v>
       </c>
@@ -12059,7 +12061,7 @@
       <c r="AN150" s="9"/>
       <c r="AO150" s="9"/>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" hidden="1" spans="1:41">
       <c r="A151" s="4" t="s">
         <v>416</v>
       </c>
@@ -12116,7 +12118,7 @@
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" hidden="1" spans="1:41">
       <c r="A152" s="4" t="s">
         <v>418</v>
       </c>
@@ -12173,7 +12175,7 @@
       <c r="AN152" s="9"/>
       <c r="AO152" s="9"/>
     </row>
-    <row r="153" ht="55" spans="1:41">
+    <row r="153" hidden="1" spans="1:41">
       <c r="A153" s="4" t="s">
         <v>420</v>
       </c>
@@ -12230,7 +12232,7 @@
       <c r="AN153" s="9"/>
       <c r="AO153" s="9"/>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" hidden="1" spans="1:41">
       <c r="A154" s="4" t="s">
         <v>422</v>
       </c>
@@ -12287,7 +12289,7 @@
       <c r="AN154" s="9"/>
       <c r="AO154" s="9"/>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" hidden="1" spans="1:41">
       <c r="A155" s="4" t="s">
         <v>424</v>
       </c>
@@ -12344,7 +12346,7 @@
       <c r="AN155" s="9"/>
       <c r="AO155" s="9"/>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" hidden="1" spans="1:41">
       <c r="A156" s="4" t="s">
         <v>426</v>
       </c>
@@ -12401,7 +12403,7 @@
       <c r="AN156" s="9"/>
       <c r="AO156" s="9"/>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" hidden="1" spans="1:41">
       <c r="A157" s="4" t="s">
         <v>429</v>
       </c>
@@ -12458,7 +12460,7 @@
       <c r="AN157" s="9"/>
       <c r="AO157" s="9"/>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" hidden="1" spans="1:41">
       <c r="A158" s="4" t="s">
         <v>431</v>
       </c>
@@ -12515,7 +12517,7 @@
       <c r="AN158" s="9"/>
       <c r="AO158" s="9"/>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" hidden="1" spans="1:41">
       <c r="A159" s="4" t="s">
         <v>434</v>
       </c>
@@ -12572,7 +12574,7 @@
       <c r="AN159" s="9"/>
       <c r="AO159" s="9"/>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" hidden="1" spans="1:41">
       <c r="A160" s="4" t="s">
         <v>436</v>
       </c>
@@ -12629,7 +12631,7 @@
       <c r="AN160" s="9"/>
       <c r="AO160" s="9"/>
     </row>
-    <row r="161" ht="28" spans="1:41">
+    <row r="161" hidden="1" spans="1:41">
       <c r="A161" s="4" t="s">
         <v>439</v>
       </c>
@@ -12686,7 +12688,7 @@
       <c r="AN161" s="9"/>
       <c r="AO161" s="9"/>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" hidden="1" spans="1:41">
       <c r="A162" s="4" t="s">
         <v>442</v>
       </c>
@@ -12743,7 +12745,7 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9"/>
     </row>
-    <row r="163" ht="28" spans="1:41">
+    <row r="163" hidden="1" spans="1:41">
       <c r="A163" s="4" t="s">
         <v>444</v>
       </c>
@@ -12800,7 +12802,7 @@
       <c r="AN163" s="9"/>
       <c r="AO163" s="9"/>
     </row>
-    <row r="164" ht="28" spans="1:41">
+    <row r="164" hidden="1" spans="1:41">
       <c r="A164" s="4" t="s">
         <v>447</v>
       </c>
@@ -12857,7 +12859,7 @@
       <c r="AN164" s="9"/>
       <c r="AO164" s="9"/>
     </row>
-    <row r="165" ht="28" spans="1:41">
+    <row r="165" hidden="1" spans="1:41">
       <c r="A165" s="4" t="s">
         <v>450</v>
       </c>
@@ -12914,7 +12916,7 @@
       <c r="AN165" s="9"/>
       <c r="AO165" s="9"/>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" hidden="1" spans="1:41">
       <c r="A166" s="4" t="s">
         <v>452</v>
       </c>
@@ -12971,7 +12973,7 @@
       <c r="AN166" s="9"/>
       <c r="AO166" s="9"/>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" hidden="1" spans="1:41">
       <c r="A167" s="4" t="s">
         <v>455</v>
       </c>
@@ -13028,7 +13030,7 @@
       <c r="AN167" s="9"/>
       <c r="AO167" s="9"/>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" hidden="1" spans="1:41">
       <c r="A168" s="4" t="s">
         <v>458</v>
       </c>
@@ -13085,7 +13087,7 @@
       <c r="AN168" s="9"/>
       <c r="AO168" s="9"/>
     </row>
-    <row r="169" ht="28" spans="1:41">
+    <row r="169" hidden="1" spans="1:41">
       <c r="A169" s="4" t="s">
         <v>461</v>
       </c>
@@ -13142,7 +13144,7 @@
       <c r="AN169" s="9"/>
       <c r="AO169" s="9"/>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" hidden="1" spans="1:41">
       <c r="A170" s="4" t="s">
         <v>463</v>
       </c>
@@ -13199,7 +13201,7 @@
       <c r="AN170" s="9"/>
       <c r="AO170" s="9"/>
     </row>
-    <row r="171" ht="41" spans="1:41">
+    <row r="171" hidden="1" spans="1:41">
       <c r="A171" s="4" t="s">
         <v>465</v>
       </c>
@@ -13256,7 +13258,7 @@
       <c r="AN171" s="9"/>
       <c r="AO171" s="9"/>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" hidden="1" spans="1:41">
       <c r="A172" s="4" t="s">
         <v>468</v>
       </c>
@@ -13313,7 +13315,7 @@
       <c r="AN172" s="9"/>
       <c r="AO172" s="9"/>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" hidden="1" spans="1:41">
       <c r="A173" s="4" t="s">
         <v>470</v>
       </c>
@@ -13370,7 +13372,7 @@
       <c r="AN173" s="9"/>
       <c r="AO173" s="9"/>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" hidden="1" spans="1:41">
       <c r="A174" s="4" t="s">
         <v>473</v>
       </c>
@@ -13427,7 +13429,7 @@
       <c r="AN174" s="9"/>
       <c r="AO174" s="9"/>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" hidden="1" spans="1:41">
       <c r="A175" s="4" t="s">
         <v>476</v>
       </c>
@@ -13484,7 +13486,7 @@
       <c r="AN175" s="9"/>
       <c r="AO175" s="9"/>
     </row>
-    <row r="176" ht="28" spans="1:41">
+    <row r="176" hidden="1" spans="1:41">
       <c r="A176" s="4" t="s">
         <v>479</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="AN176" s="9"/>
       <c r="AO176" s="9"/>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" hidden="1" spans="1:41">
       <c r="A177" s="4" t="s">
         <v>482</v>
       </c>
@@ -13598,7 +13600,7 @@
       <c r="AN177" s="9"/>
       <c r="AO177" s="9"/>
     </row>
-    <row r="178" ht="28" spans="1:41">
+    <row r="178" hidden="1" spans="1:41">
       <c r="A178" s="4" t="s">
         <v>484</v>
       </c>
@@ -13655,7 +13657,7 @@
       <c r="AN178" s="9"/>
       <c r="AO178" s="9"/>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" hidden="1" spans="1:41">
       <c r="A179" s="4" t="s">
         <v>486</v>
       </c>
@@ -13769,7 +13771,7 @@
       <c r="AN180" s="9"/>
       <c r="AO180" s="9"/>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" hidden="1" spans="1:41">
       <c r="A181" s="4" t="s">
         <v>491</v>
       </c>
@@ -13826,7 +13828,7 @@
       <c r="AN181" s="9"/>
       <c r="AO181" s="9"/>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" hidden="1" spans="1:41">
       <c r="A182" s="4" t="s">
         <v>493</v>
       </c>
@@ -13883,7 +13885,7 @@
       <c r="AN182" s="9"/>
       <c r="AO182" s="9"/>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" hidden="1" spans="1:41">
       <c r="A183" s="4" t="s">
         <v>495</v>
       </c>
@@ -13940,7 +13942,7 @@
       <c r="AN183" s="9"/>
       <c r="AO183" s="9"/>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" hidden="1" spans="1:41">
       <c r="A184" s="4" t="s">
         <v>497</v>
       </c>
@@ -13997,7 +13999,7 @@
       <c r="AN184" s="9"/>
       <c r="AO184" s="9"/>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" hidden="1" spans="1:41">
       <c r="A185" s="4" t="s">
         <v>500</v>
       </c>
@@ -14054,7 +14056,7 @@
       <c r="AN185" s="9"/>
       <c r="AO185" s="9"/>
     </row>
-    <row r="186" ht="28" spans="1:41">
+    <row r="186" hidden="1" spans="1:41">
       <c r="A186" s="4" t="s">
         <v>503</v>
       </c>
@@ -14111,7 +14113,7 @@
       <c r="AN186" s="9"/>
       <c r="AO186" s="9"/>
     </row>
-    <row r="187" ht="41" spans="1:41">
+    <row r="187" hidden="1" spans="1:41">
       <c r="A187" s="4" t="s">
         <v>506</v>
       </c>
@@ -14168,7 +14170,7 @@
       <c r="AN187" s="9"/>
       <c r="AO187" s="9"/>
     </row>
-    <row r="188" ht="28" spans="1:41">
+    <row r="188" hidden="1" spans="1:41">
       <c r="A188" s="4" t="s">
         <v>509</v>
       </c>
@@ -14225,7 +14227,7 @@
       <c r="AN188" s="9"/>
       <c r="AO188" s="9"/>
     </row>
-    <row r="189" ht="28" spans="1:41">
+    <row r="189" hidden="1" spans="1:41">
       <c r="A189" s="4" t="s">
         <v>511</v>
       </c>
@@ -14282,7 +14284,7 @@
       <c r="AN189" s="9"/>
       <c r="AO189" s="9"/>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" hidden="1" spans="1:41">
       <c r="A190" s="4" t="s">
         <v>513</v>
       </c>
@@ -14339,7 +14341,7 @@
       <c r="AN190" s="9"/>
       <c r="AO190" s="9"/>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" hidden="1" spans="1:41">
       <c r="A191" s="4" t="s">
         <v>515</v>
       </c>
@@ -14396,7 +14398,7 @@
       <c r="AN191" s="9"/>
       <c r="AO191" s="9"/>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" hidden="1" spans="1:41">
       <c r="A192" s="4" t="s">
         <v>517</v>
       </c>
@@ -14453,7 +14455,7 @@
       <c r="AN192" s="9"/>
       <c r="AO192" s="9"/>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" hidden="1" spans="1:41">
       <c r="A193" s="4" t="s">
         <v>520</v>
       </c>
@@ -14510,7 +14512,7 @@
       <c r="AN193" s="9"/>
       <c r="AO193" s="9"/>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" hidden="1" spans="1:41">
       <c r="A194" s="4" t="s">
         <v>522</v>
       </c>
@@ -14567,7 +14569,7 @@
       <c r="AN194" s="9"/>
       <c r="AO194" s="9"/>
     </row>
-    <row r="195" ht="28" spans="1:41">
+    <row r="195" hidden="1" spans="1:41">
       <c r="A195" s="4" t="s">
         <v>524</v>
       </c>
@@ -14624,7 +14626,7 @@
       <c r="AN195" s="9"/>
       <c r="AO195" s="9"/>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" hidden="1" spans="1:41">
       <c r="A196" s="4" t="s">
         <v>527</v>
       </c>
@@ -14681,7 +14683,7 @@
       <c r="AN196" s="9"/>
       <c r="AO196" s="9"/>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" hidden="1" spans="1:41">
       <c r="A197" s="4" t="s">
         <v>530</v>
       </c>
@@ -14738,7 +14740,7 @@
       <c r="AN197" s="9"/>
       <c r="AO197" s="9"/>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" hidden="1" spans="1:41">
       <c r="A198" s="4" t="s">
         <v>532</v>
       </c>
@@ -14795,7 +14797,7 @@
       <c r="AN198" s="9"/>
       <c r="AO198" s="9"/>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" hidden="1" spans="1:41">
       <c r="A199" s="4" t="s">
         <v>534</v>
       </c>
@@ -14852,7 +14854,7 @@
       <c r="AN199" s="9"/>
       <c r="AO199" s="9"/>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" hidden="1" spans="1:41">
       <c r="A200" s="4" t="s">
         <v>537</v>
       </c>
@@ -14909,7 +14911,7 @@
       <c r="AN200" s="9"/>
       <c r="AO200" s="9"/>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" hidden="1" spans="1:41">
       <c r="A201" s="4" t="s">
         <v>540</v>
       </c>
@@ -14966,7 +14968,7 @@
       <c r="AN201" s="9"/>
       <c r="AO201" s="9"/>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" hidden="1" spans="1:41">
       <c r="A202" s="4" t="s">
         <v>542</v>
       </c>
@@ -15023,7 +15025,7 @@
       <c r="AN202" s="9"/>
       <c r="AO202" s="9"/>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" hidden="1" spans="1:41">
       <c r="A203" s="4" t="s">
         <v>545</v>
       </c>
@@ -15080,7 +15082,7 @@
       <c r="AN203" s="9"/>
       <c r="AO203" s="9"/>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" hidden="1" spans="1:41">
       <c r="A204" s="4" t="s">
         <v>547</v>
       </c>
@@ -15137,7 +15139,7 @@
       <c r="AN204" s="9"/>
       <c r="AO204" s="9"/>
     </row>
-    <row r="205" ht="28" spans="1:41">
+    <row r="205" hidden="1" spans="1:41">
       <c r="A205" s="4" t="s">
         <v>550</v>
       </c>
@@ -15194,7 +15196,7 @@
       <c r="AN205" s="9"/>
       <c r="AO205" s="9"/>
     </row>
-    <row r="206" spans="1:41">
+    <row r="206" hidden="1" spans="1:41">
       <c r="A206" s="4" t="s">
         <v>553</v>
       </c>
@@ -15251,7 +15253,7 @@
       <c r="AN206" s="9"/>
       <c r="AO206" s="9"/>
     </row>
-    <row r="207" ht="28" spans="1:41">
+    <row r="207" hidden="1" spans="1:41">
       <c r="A207" s="4" t="s">
         <v>555</v>
       </c>
@@ -15308,7 +15310,7 @@
       <c r="AN207" s="9"/>
       <c r="AO207" s="9"/>
     </row>
-    <row r="208" spans="1:41">
+    <row r="208" hidden="1" spans="1:41">
       <c r="A208" s="4" t="s">
         <v>557</v>
       </c>
@@ -15365,7 +15367,7 @@
       <c r="AN208" s="9"/>
       <c r="AO208" s="9"/>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" hidden="1" spans="1:41">
       <c r="A209" s="4" t="s">
         <v>560</v>
       </c>
@@ -15422,7 +15424,7 @@
       <c r="AN209" s="9"/>
       <c r="AO209" s="9"/>
     </row>
-    <row r="210" spans="1:41">
+    <row r="210" hidden="1" spans="1:41">
       <c r="A210" s="4" t="s">
         <v>563</v>
       </c>
@@ -15479,7 +15481,7 @@
       <c r="AN210" s="9"/>
       <c r="AO210" s="9"/>
     </row>
-    <row r="211" ht="68" spans="1:41">
+    <row r="211" hidden="1" spans="1:41">
       <c r="A211" s="4" t="s">
         <v>565</v>
       </c>
@@ -15536,7 +15538,7 @@
       <c r="AN211" s="9"/>
       <c r="AO211" s="9"/>
     </row>
-    <row r="212" ht="28" spans="1:41">
+    <row r="212" hidden="1" spans="1:41">
       <c r="A212" s="4" t="s">
         <v>568</v>
       </c>
@@ -15593,7 +15595,7 @@
       <c r="AN212" s="9"/>
       <c r="AO212" s="9"/>
     </row>
-    <row r="213" ht="28" spans="1:41">
+    <row r="213" hidden="1" spans="1:41">
       <c r="A213" s="4" t="s">
         <v>570</v>
       </c>
@@ -15650,7 +15652,7 @@
       <c r="AN213" s="9"/>
       <c r="AO213" s="9"/>
     </row>
-    <row r="214" ht="28" spans="1:41">
+    <row r="214" hidden="1" spans="1:41">
       <c r="A214" s="4" t="s">
         <v>573</v>
       </c>
@@ -15707,7 +15709,7 @@
       <c r="AN214" s="9"/>
       <c r="AO214" s="9"/>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" hidden="1" spans="1:41">
       <c r="A215" s="4" t="s">
         <v>576</v>
       </c>
@@ -15764,7 +15766,7 @@
       <c r="AN215" s="9"/>
       <c r="AO215" s="9"/>
     </row>
-    <row r="216" spans="1:41">
+    <row r="216" hidden="1" spans="1:41">
       <c r="A216" s="4" t="s">
         <v>579</v>
       </c>
@@ -15821,7 +15823,7 @@
       <c r="AN216" s="9"/>
       <c r="AO216" s="9"/>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" hidden="1" spans="1:41">
       <c r="A217" s="4" t="s">
         <v>581</v>
       </c>
@@ -15878,7 +15880,7 @@
       <c r="AN217" s="9"/>
       <c r="AO217" s="9"/>
     </row>
-    <row r="218" ht="28" spans="1:41">
+    <row r="218" hidden="1" spans="1:41">
       <c r="A218" s="4" t="s">
         <v>583</v>
       </c>
@@ -15935,7 +15937,7 @@
       <c r="AN218" s="9"/>
       <c r="AO218" s="9"/>
     </row>
-    <row r="219" ht="55" spans="1:41">
+    <row r="219" hidden="1" spans="1:41">
       <c r="A219" s="4" t="s">
         <v>585</v>
       </c>
@@ -15992,7 +15994,7 @@
       <c r="AN219" s="9"/>
       <c r="AO219" s="9"/>
     </row>
-    <row r="220" spans="1:41">
+    <row r="220" hidden="1" spans="1:41">
       <c r="A220" s="4" t="s">
         <v>588</v>
       </c>
@@ -16049,7 +16051,7 @@
       <c r="AN220" s="9"/>
       <c r="AO220" s="9"/>
     </row>
-    <row r="221" spans="1:41">
+    <row r="221" hidden="1" spans="1:41">
       <c r="A221" s="4" t="s">
         <v>590</v>
       </c>
@@ -16106,7 +16108,7 @@
       <c r="AN221" s="9"/>
       <c r="AO221" s="9"/>
     </row>
-    <row r="222" spans="1:41">
+    <row r="222" hidden="1" spans="1:41">
       <c r="A222" s="4" t="s">
         <v>592</v>
       </c>
@@ -16163,7 +16165,7 @@
       <c r="AN222" s="9"/>
       <c r="AO222" s="9"/>
     </row>
-    <row r="223" spans="1:41">
+    <row r="223" hidden="1" spans="1:41">
       <c r="A223" s="4" t="s">
         <v>594</v>
       </c>
@@ -16220,7 +16222,7 @@
       <c r="AN223" s="9"/>
       <c r="AO223" s="9"/>
     </row>
-    <row r="224" spans="1:41">
+    <row r="224" hidden="1" spans="1:41">
       <c r="A224" s="4" t="s">
         <v>596</v>
       </c>
@@ -16277,7 +16279,7 @@
       <c r="AN224" s="9"/>
       <c r="AO224" s="9"/>
     </row>
-    <row r="225" spans="1:41">
+    <row r="225" hidden="1" spans="1:41">
       <c r="A225" s="4" t="s">
         <v>598</v>
       </c>
@@ -16334,7 +16336,7 @@
       <c r="AN225" s="9"/>
       <c r="AO225" s="9"/>
     </row>
-    <row r="226" spans="1:41">
+    <row r="226" hidden="1" spans="1:41">
       <c r="A226" s="4" t="s">
         <v>601</v>
       </c>
@@ -16391,7 +16393,7 @@
       <c r="AN226" s="9"/>
       <c r="AO226" s="9"/>
     </row>
-    <row r="227" spans="1:41">
+    <row r="227" hidden="1" spans="1:41">
       <c r="A227" s="4" t="s">
         <v>603</v>
       </c>
@@ -16448,7 +16450,7 @@
       <c r="AN227" s="9"/>
       <c r="AO227" s="9"/>
     </row>
-    <row r="228" spans="1:41">
+    <row r="228" hidden="1" spans="1:41">
       <c r="A228" s="4" t="s">
         <v>605</v>
       </c>
@@ -16505,7 +16507,7 @@
       <c r="AN228" s="9"/>
       <c r="AO228" s="9"/>
     </row>
-    <row r="229" spans="1:41">
+    <row r="229" hidden="1" spans="1:41">
       <c r="A229" s="4" t="s">
         <v>608</v>
       </c>
@@ -16562,7 +16564,7 @@
       <c r="AN229" s="9"/>
       <c r="AO229" s="9"/>
     </row>
-    <row r="230" spans="1:41">
+    <row r="230" hidden="1" spans="1:41">
       <c r="A230" s="4" t="s">
         <v>610</v>
       </c>
@@ -16619,7 +16621,7 @@
       <c r="AN230" s="9"/>
       <c r="AO230" s="9"/>
     </row>
-    <row r="231" ht="28" spans="1:41">
+    <row r="231" hidden="1" spans="1:41">
       <c r="A231" s="4" t="s">
         <v>612</v>
       </c>
@@ -16676,7 +16678,7 @@
       <c r="AN231" s="9"/>
       <c r="AO231" s="9"/>
     </row>
-    <row r="232" ht="28" spans="1:41">
+    <row r="232" hidden="1" spans="1:41">
       <c r="A232" s="4" t="s">
         <v>614</v>
       </c>
@@ -16733,7 +16735,7 @@
       <c r="AN232" s="9"/>
       <c r="AO232" s="9"/>
     </row>
-    <row r="233" spans="1:41">
+    <row r="233" hidden="1" spans="1:41">
       <c r="A233" s="4" t="s">
         <v>616</v>
       </c>
@@ -16790,7 +16792,7 @@
       <c r="AN233" s="9"/>
       <c r="AO233" s="9"/>
     </row>
-    <row r="234" spans="1:41">
+    <row r="234" hidden="1" spans="1:41">
       <c r="A234" s="4" t="s">
         <v>619</v>
       </c>
@@ -16847,7 +16849,7 @@
       <c r="AN234" s="9"/>
       <c r="AO234" s="9"/>
     </row>
-    <row r="235" spans="1:41">
+    <row r="235" hidden="1" spans="1:41">
       <c r="A235" s="4" t="s">
         <v>621</v>
       </c>
@@ -16904,7 +16906,7 @@
       <c r="AN235" s="9"/>
       <c r="AO235" s="9"/>
     </row>
-    <row r="236" ht="41" spans="1:41">
+    <row r="236" hidden="1" spans="1:41">
       <c r="A236" s="4" t="s">
         <v>623</v>
       </c>
@@ -16961,7 +16963,7 @@
       <c r="AN236" s="9"/>
       <c r="AO236" s="9"/>
     </row>
-    <row r="237" ht="28" spans="1:41">
+    <row r="237" hidden="1" spans="1:41">
       <c r="A237" s="4" t="s">
         <v>625</v>
       </c>
@@ -17018,7 +17020,7 @@
       <c r="AN237" s="9"/>
       <c r="AO237" s="9"/>
     </row>
-    <row r="238" spans="1:41">
+    <row r="238" hidden="1" spans="1:41">
       <c r="A238" s="4" t="s">
         <v>627</v>
       </c>
@@ -17075,7 +17077,7 @@
       <c r="AN238" s="9"/>
       <c r="AO238" s="9"/>
     </row>
-    <row r="239" spans="1:41">
+    <row r="239" hidden="1" spans="1:41">
       <c r="A239" s="4" t="s">
         <v>629</v>
       </c>
@@ -17132,7 +17134,7 @@
       <c r="AN239" s="9"/>
       <c r="AO239" s="9"/>
     </row>
-    <row r="240" spans="1:41">
+    <row r="240" hidden="1" spans="1:41">
       <c r="A240" s="4" t="s">
         <v>631</v>
       </c>
@@ -17189,7 +17191,7 @@
       <c r="AN240" s="9"/>
       <c r="AO240" s="9"/>
     </row>
-    <row r="241" spans="1:41">
+    <row r="241" hidden="1" spans="1:41">
       <c r="A241" s="4" t="s">
         <v>634</v>
       </c>
@@ -17246,7 +17248,7 @@
       <c r="AN241" s="9"/>
       <c r="AO241" s="9"/>
     </row>
-    <row r="242" ht="41" spans="1:41">
+    <row r="242" hidden="1" spans="1:41">
       <c r="A242" s="4" t="s">
         <v>637</v>
       </c>
@@ -17303,7 +17305,7 @@
       <c r="AN242" s="9"/>
       <c r="AO242" s="9"/>
     </row>
-    <row r="243" ht="28" spans="1:41">
+    <row r="243" hidden="1" spans="1:41">
       <c r="A243" s="4" t="s">
         <v>639</v>
       </c>
@@ -17360,7 +17362,7 @@
       <c r="AN243" s="9"/>
       <c r="AO243" s="9"/>
     </row>
-    <row r="244" ht="28" spans="1:41">
+    <row r="244" hidden="1" spans="1:41">
       <c r="A244" s="4" t="s">
         <v>641</v>
       </c>
@@ -17417,7 +17419,7 @@
       <c r="AN244" s="9"/>
       <c r="AO244" s="9"/>
     </row>
-    <row r="245" ht="28" spans="1:41">
+    <row r="245" hidden="1" spans="1:41">
       <c r="A245" s="4" t="s">
         <v>643</v>
       </c>
@@ -17474,7 +17476,7 @@
       <c r="AN245" s="9"/>
       <c r="AO245" s="9"/>
     </row>
-    <row r="246" ht="55" spans="1:41">
+    <row r="246" hidden="1" spans="1:41">
       <c r="A246" s="4" t="s">
         <v>645</v>
       </c>
@@ -17531,7 +17533,7 @@
       <c r="AN246" s="9"/>
       <c r="AO246" s="9"/>
     </row>
-    <row r="247" spans="1:41">
+    <row r="247" hidden="1" spans="1:41">
       <c r="A247" s="4" t="s">
         <v>647</v>
       </c>
@@ -17588,7 +17590,7 @@
       <c r="AN247" s="9"/>
       <c r="AO247" s="9"/>
     </row>
-    <row r="248" spans="1:41">
+    <row r="248" hidden="1" spans="1:41">
       <c r="A248" s="4" t="s">
         <v>649</v>
       </c>
@@ -17645,7 +17647,7 @@
       <c r="AN248" s="9"/>
       <c r="AO248" s="9"/>
     </row>
-    <row r="249" ht="28" spans="1:41">
+    <row r="249" hidden="1" spans="1:41">
       <c r="A249" s="4" t="s">
         <v>651</v>
       </c>
@@ -17702,7 +17704,7 @@
       <c r="AN249" s="9"/>
       <c r="AO249" s="9"/>
     </row>
-    <row r="250" spans="1:41">
+    <row r="250" hidden="1" spans="1:41">
       <c r="A250" s="4" t="s">
         <v>653</v>
       </c>
@@ -17759,7 +17761,7 @@
       <c r="AN250" s="9"/>
       <c r="AO250" s="9"/>
     </row>
-    <row r="251" spans="1:41">
+    <row r="251" hidden="1" spans="1:41">
       <c r="A251" s="4" t="s">
         <v>655</v>
       </c>
@@ -17817,6 +17819,11 @@
       <c r="AO251" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B251">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -17847,7 +17854,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220524.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021年第四季度/技术面20220524.xlsx
@@ -2296,14 +2296,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2331,7 +2331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2346,29 +2346,28 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2383,27 +2382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2413,8 +2391,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2437,6 +2430,36 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2444,38 +2467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2526,7 +2526,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2538,175 +2700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,8 +2738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2755,47 +2755,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2818,8 +2777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,151 +2791,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3003,26 +3003,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3034,7 +3034,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3089,15 +3089,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3441,15 +3433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AO251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AI9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B180" sqref="B180"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="D1:AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -3526,7 +3518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:41">
+    <row r="2" spans="1:41">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3601,7 +3593,7 @@
       <c r="AN2" s="18"/>
       <c r="AO2" s="19"/>
     </row>
-    <row r="3" ht="41" hidden="1" spans="1:41">
+    <row r="3" ht="41" spans="1:41">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3682,7 +3674,7 @@
       <c r="AN3" s="18"/>
       <c r="AO3" s="19"/>
     </row>
-    <row r="4" hidden="1" spans="1:41">
+    <row r="4" spans="1:41">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3731,7 @@
       <c r="AN4" s="9"/>
       <c r="AO4" s="9"/>
     </row>
-    <row r="5" hidden="1" spans="1:41">
+    <row r="5" spans="1:41">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -3796,7 +3788,7 @@
       <c r="AN5" s="9"/>
       <c r="AO5" s="9"/>
     </row>
-    <row r="6" hidden="1" spans="1:41">
+    <row r="6" spans="1:41">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -3853,7 +3845,7 @@
       <c r="AN6" s="9"/>
       <c r="AO6" s="9"/>
     </row>
-    <row r="7" hidden="1" spans="1:41">
+    <row r="7" spans="1:41">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -3910,7 +3902,7 @@
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
     </row>
-    <row r="8" hidden="1" spans="1:41">
+    <row r="8" spans="1:41">
       <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
@@ -3967,7 +3959,7 @@
       <c r="AN8" s="9"/>
       <c r="AO8" s="9"/>
     </row>
-    <row r="9" hidden="1" spans="1:41">
+    <row r="9" spans="1:41">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -4024,7 +4016,7 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
     </row>
-    <row r="10" hidden="1" spans="1:41">
+    <row r="10" spans="1:41">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -4081,7 +4073,7 @@
       <c r="AN10" s="9"/>
       <c r="AO10" s="9"/>
     </row>
-    <row r="11" hidden="1" spans="1:41">
+    <row r="11" spans="1:41">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
@@ -4138,7 +4130,7 @@
       <c r="AN11" s="9"/>
       <c r="AO11" s="9"/>
     </row>
-    <row r="12" hidden="1" spans="1:41">
+    <row r="12" spans="1:41">
       <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
@@ -4195,7 +4187,7 @@
       <c r="AN12" s="9"/>
       <c r="AO12" s="9"/>
     </row>
-    <row r="13" hidden="1" spans="1:41">
+    <row r="13" spans="1:41">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -4252,7 +4244,7 @@
       <c r="AN13" s="9"/>
       <c r="AO13" s="9"/>
     </row>
-    <row r="14" hidden="1" spans="1:41">
+    <row r="14" spans="1:41">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
@@ -4309,7 +4301,7 @@
       <c r="AN14" s="9"/>
       <c r="AO14" s="9"/>
     </row>
-    <row r="15" hidden="1" spans="1:41">
+    <row r="15" spans="1:41">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -4366,7 +4358,7 @@
       <c r="AN15" s="9"/>
       <c r="AO15" s="9"/>
     </row>
-    <row r="16" hidden="1" spans="1:41">
+    <row r="16" spans="1:41">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -4423,7 +4415,7 @@
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
     </row>
-    <row r="17" hidden="1" spans="1:41">
+    <row r="17" spans="1:41">
       <c r="A17" s="4" t="s">
         <v>84</v>
       </c>
@@ -4480,7 +4472,7 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
     </row>
-    <row r="18" hidden="1" spans="1:41">
+    <row r="18" spans="1:41">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -4537,7 +4529,7 @@
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
     </row>
-    <row r="19" hidden="1" spans="1:41">
+    <row r="19" spans="1:41">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -4594,7 +4586,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="9"/>
     </row>
-    <row r="20" hidden="1" spans="1:41">
+    <row r="20" spans="1:41">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -4651,7 +4643,7 @@
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
     </row>
-    <row r="21" hidden="1" spans="1:41">
+    <row r="21" spans="1:41">
       <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
@@ -4708,7 +4700,7 @@
       <c r="AN21" s="9"/>
       <c r="AO21" s="9"/>
     </row>
-    <row r="22" hidden="1" spans="1:41">
+    <row r="22" spans="1:41">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -4765,7 +4757,7 @@
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
     </row>
-    <row r="23" hidden="1" spans="1:41">
+    <row r="23" spans="1:41">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -4822,7 +4814,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
     </row>
-    <row r="24" hidden="1" spans="1:41">
+    <row r="24" spans="1:41">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -4879,7 +4871,7 @@
       <c r="AN24" s="9"/>
       <c r="AO24" s="9"/>
     </row>
-    <row r="25" hidden="1" spans="1:41">
+    <row r="25" spans="1:41">
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
@@ -4936,7 +4928,7 @@
       <c r="AN25" s="9"/>
       <c r="AO25" s="9"/>
     </row>
-    <row r="26" hidden="1" spans="1:41">
+    <row r="26" spans="1:41">
       <c r="A26" s="4" t="s">
         <v>109</v>
       </c>
@@ -4993,7 +4985,7 @@
       <c r="AN26" s="9"/>
       <c r="AO26" s="9"/>
     </row>
-    <row r="27" hidden="1" spans="1:41">
+    <row r="27" spans="1:41">
       <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
@@ -5050,7 +5042,7 @@
       <c r="AN27" s="9"/>
       <c r="AO27" s="9"/>
     </row>
-    <row r="28" hidden="1" spans="1:41">
+    <row r="28" spans="1:41">
       <c r="A28" s="4" t="s">
         <v>114</v>
       </c>
@@ -5107,7 +5099,7 @@
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
     </row>
-    <row r="29" hidden="1" spans="1:41">
+    <row r="29" spans="1:41">
       <c r="A29" s="4" t="s">
         <v>117</v>
       </c>
@@ -5221,7 +5213,7 @@
       <c r="AN30" s="9"/>
       <c r="AO30" s="9"/>
     </row>
-    <row r="31" hidden="1" spans="1:41">
+    <row r="31" spans="1:41">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
@@ -5278,7 +5270,7 @@
       <c r="AN31" s="9"/>
       <c r="AO31" s="9"/>
     </row>
-    <row r="32" hidden="1" spans="1:41">
+    <row r="32" spans="1:41">
       <c r="A32" s="4" t="s">
         <v>125</v>
       </c>
@@ -5335,7 +5327,7 @@
       <c r="AN32" s="9"/>
       <c r="AO32" s="9"/>
     </row>
-    <row r="33" hidden="1" spans="1:41">
+    <row r="33" spans="1:41">
       <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
@@ -5392,7 +5384,7 @@
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
     </row>
-    <row r="34" hidden="1" spans="1:41">
+    <row r="34" spans="1:41">
       <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
@@ -5449,7 +5441,7 @@
       <c r="AN34" s="9"/>
       <c r="AO34" s="9"/>
     </row>
-    <row r="35" hidden="1" spans="1:41">
+    <row r="35" spans="1:41">
       <c r="A35" s="4" t="s">
         <v>134</v>
       </c>
@@ -5506,7 +5498,7 @@
       <c r="AN35" s="9"/>
       <c r="AO35" s="9"/>
     </row>
-    <row r="36" hidden="1" spans="1:41">
+    <row r="36" spans="1:41">
       <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
@@ -5563,7 +5555,7 @@
       <c r="AN36" s="9"/>
       <c r="AO36" s="9"/>
     </row>
-    <row r="37" hidden="1" spans="1:41">
+    <row r="37" spans="1:41">
       <c r="A37" s="4" t="s">
         <v>140</v>
       </c>
@@ -5620,7 +5612,7 @@
       <c r="AN37" s="9"/>
       <c r="AO37" s="9"/>
     </row>
-    <row r="38" hidden="1" spans="1:41">
+    <row r="38" spans="1:41">
       <c r="A38" s="4" t="s">
         <v>143</v>
       </c>
@@ -5677,7 +5669,7 @@
       <c r="AN38" s="9"/>
       <c r="AO38" s="9"/>
     </row>
-    <row r="39" hidden="1" spans="1:41">
+    <row r="39" spans="1:41">
       <c r="A39" s="4" t="s">
         <v>146</v>
       </c>
@@ -5734,7 +5726,7 @@
       <c r="AN39" s="9"/>
       <c r="AO39" s="9"/>
     </row>
-    <row r="40" hidden="1" spans="1:41">
+    <row r="40" spans="1:41">
       <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
@@ -5791,7 +5783,7 @@
       <c r="AN40" s="9"/>
       <c r="AO40" s="9"/>
     </row>
-    <row r="41" hidden="1" spans="1:41">
+    <row r="41" spans="1:41">
       <c r="A41" s="4" t="s">
         <v>150</v>
       </c>
@@ -5905,7 +5897,7 @@
       <c r="AN42" s="9"/>
       <c r="AO42" s="9"/>
     </row>
-    <row r="43" hidden="1" spans="1:41">
+    <row r="43" spans="1:41">
       <c r="A43" s="4" t="s">
         <v>156</v>
       </c>
@@ -5962,7 +5954,7 @@
       <c r="AN43" s="9"/>
       <c r="AO43" s="9"/>
     </row>
-    <row r="44" hidden="1" spans="1:41">
+    <row r="44" spans="1:41">
       <c r="A44" s="4" t="s">
         <v>159</v>
       </c>
@@ -6019,7 +6011,7 @@
       <c r="AN44" s="9"/>
       <c r="AO44" s="9"/>
     </row>
-    <row r="45" hidden="1" spans="1:41">
+    <row r="45" spans="1:41">
       <c r="A45" s="4" t="s">
         <v>161</v>
       </c>
@@ -6076,7 +6068,7 @@
       <c r="AN45" s="9"/>
       <c r="AO45" s="9"/>
     </row>
-    <row r="46" hidden="1" spans="1:41">
+    <row r="46" spans="1:41">
       <c r="A46" s="4" t="s">
         <v>163</v>
       </c>
@@ -6133,7 +6125,7 @@
       <c r="AN46" s="9"/>
       <c r="AO46" s="9"/>
     </row>
-    <row r="47" hidden="1" spans="1:41">
+    <row r="47" spans="1:41">
       <c r="A47" s="4" t="s">
         <v>166</v>
       </c>
@@ -6190,7 +6182,7 @@
       <c r="AN47" s="9"/>
       <c r="AO47" s="9"/>
     </row>
-    <row r="48" hidden="1" spans="1:41">
+    <row r="48" spans="1:41">
       <c r="A48" s="4" t="s">
         <v>169</v>
       </c>
@@ -6247,7 +6239,7 @@
       <c r="AN48" s="9"/>
       <c r="AO48" s="9"/>
     </row>
-    <row r="49" hidden="1" spans="1:41">
+    <row r="49" spans="1:41">
       <c r="A49" s="4" t="s">
         <v>171</v>
       </c>
@@ -6304,7 +6296,7 @@
       <c r="AN49" s="9"/>
       <c r="AO49" s="9"/>
     </row>
-    <row r="50" hidden="1" spans="1:41">
+    <row r="50" spans="1:41">
       <c r="A50" s="4" t="s">
         <v>174</v>
       </c>
@@ -6361,7 +6353,7 @@
       <c r="AN50" s="9"/>
       <c r="AO50" s="9"/>
     </row>
-    <row r="51" hidden="1" spans="1:41">
+    <row r="51" spans="1:41">
       <c r="A51" s="4" t="s">
         <v>176</v>
       </c>
@@ -6418,7 +6410,7 @@
       <c r="AN51" s="9"/>
       <c r="AO51" s="9"/>
     </row>
-    <row r="52" hidden="1" spans="1:41">
+    <row r="52" spans="1:41">
       <c r="A52" s="4" t="s">
         <v>178</v>
       </c>
@@ -6475,7 +6467,7 @@
       <c r="AN52" s="9"/>
       <c r="AO52" s="9"/>
     </row>
-    <row r="53" hidden="1" spans="1:41">
+    <row r="53" spans="1:41">
       <c r="A53" s="4" t="s">
         <v>181</v>
       </c>
@@ -6532,7 +6524,7 @@
       <c r="AN53" s="9"/>
       <c r="AO53" s="9"/>
     </row>
-    <row r="54" hidden="1" spans="1:41">
+    <row r="54" spans="1:41">
       <c r="A54" s="4" t="s">
         <v>183</v>
       </c>
@@ -6589,7 +6581,7 @@
       <c r="AN54" s="9"/>
       <c r="AO54" s="9"/>
     </row>
-    <row r="55" hidden="1" spans="1:41">
+    <row r="55" spans="1:41">
       <c r="A55" s="4" t="s">
         <v>185</v>
       </c>
@@ -6646,7 +6638,7 @@
       <c r="AN55" s="9"/>
       <c r="AO55" s="9"/>
     </row>
-    <row r="56" hidden="1" spans="1:41">
+    <row r="56" spans="1:41">
       <c r="A56" s="4" t="s">
         <v>187</v>
       </c>
@@ -6703,7 +6695,7 @@
       <c r="AN56" s="9"/>
       <c r="AO56" s="9"/>
     </row>
-    <row r="57" hidden="1" spans="1:41">
+    <row r="57" spans="1:41">
       <c r="A57" s="4" t="s">
         <v>190</v>
       </c>
@@ -6760,7 +6752,7 @@
       <c r="AN57" s="9"/>
       <c r="AO57" s="9"/>
     </row>
-    <row r="58" hidden="1" spans="1:41">
+    <row r="58" spans="1:41">
       <c r="A58" s="4" t="s">
         <v>193</v>
       </c>
@@ -6817,7 +6809,7 @@
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
     </row>
-    <row r="59" hidden="1" spans="1:41">
+    <row r="59" spans="1:41">
       <c r="A59" s="4" t="s">
         <v>195</v>
       </c>
@@ -6874,7 +6866,7 @@
       <c r="AN59" s="9"/>
       <c r="AO59" s="9"/>
     </row>
-    <row r="60" hidden="1" spans="1:41">
+    <row r="60" spans="1:41">
       <c r="A60" s="4" t="s">
         <v>197</v>
       </c>
@@ -6931,7 +6923,7 @@
       <c r="AN60" s="9"/>
       <c r="AO60" s="9"/>
     </row>
-    <row r="61" hidden="1" spans="1:41">
+    <row r="61" spans="1:41">
       <c r="A61" s="4" t="s">
         <v>199</v>
       </c>
@@ -6988,7 +6980,7 @@
       <c r="AN61" s="9"/>
       <c r="AO61" s="9"/>
     </row>
-    <row r="62" hidden="1" spans="1:41">
+    <row r="62" spans="1:41">
       <c r="A62" s="4" t="s">
         <v>202</v>
       </c>
@@ -7045,7 +7037,7 @@
       <c r="AN62" s="9"/>
       <c r="AO62" s="9"/>
     </row>
-    <row r="63" hidden="1" spans="1:41">
+    <row r="63" spans="1:41">
       <c r="A63" s="4" t="s">
         <v>204</v>
       </c>
@@ -7102,7 +7094,7 @@
       <c r="AN63" s="9"/>
       <c r="AO63" s="9"/>
     </row>
-    <row r="64" hidden="1" spans="1:41">
+    <row r="64" spans="1:41">
       <c r="A64" s="4" t="s">
         <v>207</v>
       </c>
@@ -7159,7 +7151,7 @@
       <c r="AN64" s="9"/>
       <c r="AO64" s="9"/>
     </row>
-    <row r="65" hidden="1" spans="1:41">
+    <row r="65" spans="1:41">
       <c r="A65" s="4" t="s">
         <v>210</v>
       </c>
@@ -7216,7 +7208,7 @@
       <c r="AN65" s="9"/>
       <c r="AO65" s="9"/>
     </row>
-    <row r="66" hidden="1" spans="1:41">
+    <row r="66" spans="1:41">
       <c r="A66" s="4" t="s">
         <v>213</v>
       </c>
@@ -7273,7 +7265,7 @@
       <c r="AN66" s="9"/>
       <c r="AO66" s="9"/>
     </row>
-    <row r="67" hidden="1" spans="1:41">
+    <row r="67" spans="1:41">
       <c r="A67" s="4" t="s">
         <v>216</v>
       </c>
@@ -7330,7 +7322,7 @@
       <c r="AN67" s="9"/>
       <c r="AO67" s="9"/>
     </row>
-    <row r="68" hidden="1" spans="1:41">
+    <row r="68" spans="1:41">
       <c r="A68" s="4" t="s">
         <v>219</v>
       </c>
@@ -7387,7 +7379,7 @@
       <c r="AN68" s="9"/>
       <c r="AO68" s="9"/>
     </row>
-    <row r="69" hidden="1" spans="1:41">
+    <row r="69" spans="1:41">
       <c r="A69" s="4" t="s">
         <v>221</v>
       </c>
@@ -7444,7 +7436,7 @@
       <c r="AN69" s="9"/>
       <c r="AO69" s="9"/>
     </row>
-    <row r="70" hidden="1" spans="1:41">
+    <row r="70" spans="1:41">
       <c r="A70" s="4" t="s">
         <v>224</v>
       </c>
@@ -7501,7 +7493,7 @@
       <c r="AN70" s="9"/>
       <c r="AO70" s="9"/>
     </row>
-    <row r="71" hidden="1" spans="1:41">
+    <row r="71" spans="1:41">
       <c r="A71" s="4" t="s">
         <v>227</v>
       </c>
@@ -7558,7 +7550,7 @@
       <c r="AN71" s="9"/>
       <c r="AO71" s="9"/>
     </row>
-    <row r="72" hidden="1" spans="1:41">
+    <row r="72" spans="1:41">
       <c r="A72" s="4" t="s">
         <v>229</v>
       </c>
@@ -7615,7 +7607,7 @@
       <c r="AN72" s="9"/>
       <c r="AO72" s="9"/>
     </row>
-    <row r="73" hidden="1" spans="1:41">
+    <row r="73" spans="1:41">
       <c r="A73" s="4" t="s">
         <v>231</v>
       </c>
@@ -7672,7 +7664,7 @@
       <c r="AN73" s="9"/>
       <c r="AO73" s="9"/>
     </row>
-    <row r="74" hidden="1" spans="1:41">
+    <row r="74" spans="1:41">
       <c r="A74" s="4" t="s">
         <v>233</v>
       </c>
@@ -7729,7 +7721,7 @@
       <c r="AN74" s="9"/>
       <c r="AO74" s="9"/>
     </row>
-    <row r="75" hidden="1" spans="1:41">
+    <row r="75" spans="1:41">
       <c r="A75" s="4" t="s">
         <v>236</v>
       </c>
@@ -7786,7 +7778,7 @@
       <c r="AN75" s="9"/>
       <c r="AO75" s="9"/>
     </row>
-    <row r="76" hidden="1" spans="1:41">
+    <row r="76" spans="1:41">
       <c r="A76" s="4" t="s">
         <v>239</v>
       </c>
@@ -7843,7 +7835,7 @@
       <c r="AN76" s="9"/>
       <c r="AO76" s="9"/>
     </row>
-    <row r="77" hidden="1" spans="1:41">
+    <row r="77" spans="1:41">
       <c r="A77" s="4" t="s">
         <v>242</v>
       </c>
@@ -7900,7 +7892,7 @@
       <c r="AN77" s="9"/>
       <c r="AO77" s="9"/>
     </row>
-    <row r="78" hidden="1" spans="1:41">
+    <row r="78" spans="1:41">
       <c r="A78" s="4" t="s">
         <v>245</v>
       </c>
@@ -7957,7 +7949,7 @@
       <c r="AN78" s="9"/>
       <c r="AO78" s="9"/>
     </row>
-    <row r="79" hidden="1" spans="1:41">
+    <row r="79" spans="1:41">
       <c r="A79" s="4" t="s">
         <v>247</v>
       </c>
@@ -8014,7 +8006,7 @@
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
     </row>
-    <row r="80" hidden="1" spans="1:41">
+    <row r="80" spans="1:41">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -8071,7 +8063,7 @@
       <c r="AN80" s="9"/>
       <c r="AO80" s="9"/>
     </row>
-    <row r="81" hidden="1" spans="1:41">
+    <row r="81" spans="1:41">
       <c r="A81" s="4" t="s">
         <v>253</v>
       </c>
@@ -8128,7 +8120,7 @@
       <c r="AN81" s="9"/>
       <c r="AO81" s="9"/>
     </row>
-    <row r="82" hidden="1" spans="1:41">
+    <row r="82" spans="1:41">
       <c r="A82" s="4" t="s">
         <v>256</v>
       </c>
@@ -8185,7 +8177,7 @@
       <c r="AN82" s="9"/>
       <c r="AO82" s="9"/>
     </row>
-    <row r="83" hidden="1" spans="1:41">
+    <row r="83" spans="1:41">
       <c r="A83" s="4" t="s">
         <v>258</v>
       </c>
@@ -8242,7 +8234,7 @@
       <c r="AN83" s="9"/>
       <c r="AO83" s="9"/>
     </row>
-    <row r="84" hidden="1" spans="1:41">
+    <row r="84" spans="1:41">
       <c r="A84" s="4" t="s">
         <v>261</v>
       </c>
@@ -8299,7 +8291,7 @@
       <c r="AN84" s="9"/>
       <c r="AO84" s="9"/>
     </row>
-    <row r="85" hidden="1" spans="1:41">
+    <row r="85" spans="1:41">
       <c r="A85" s="4" t="s">
         <v>264</v>
       </c>
@@ -8356,7 +8348,7 @@
       <c r="AN85" s="9"/>
       <c r="AO85" s="9"/>
     </row>
-    <row r="86" hidden="1" spans="1:41">
+    <row r="86" spans="1:41">
       <c r="A86" s="4" t="s">
         <v>267</v>
       </c>
@@ -8413,7 +8405,7 @@
       <c r="AN86" s="9"/>
       <c r="AO86" s="9"/>
     </row>
-    <row r="87" hidden="1" spans="1:41">
+    <row r="87" spans="1:41">
       <c r="A87" s="4" t="s">
         <v>269</v>
       </c>
@@ -8470,7 +8462,7 @@
       <c r="AN87" s="9"/>
       <c r="AO87" s="9"/>
     </row>
-    <row r="88" hidden="1" spans="1:41">
+    <row r="88" spans="1:41">
       <c r="A88" s="4" t="s">
         <v>272</v>
       </c>
@@ -8527,7 +8519,7 @@
       <c r="AN88" s="9"/>
       <c r="AO88" s="9"/>
     </row>
-    <row r="89" hidden="1" spans="1:41">
+    <row r="89" spans="1:41">
       <c r="A89" s="4" t="s">
         <v>274</v>
       </c>
@@ -8584,7 +8576,7 @@
       <c r="AN89" s="9"/>
       <c r="AO89" s="9"/>
     </row>
-    <row r="90" hidden="1" spans="1:41">
+    <row r="90" spans="1:41">
       <c r="A90" s="4" t="s">
         <v>276</v>
       </c>
@@ -8641,7 +8633,7 @@
       <c r="AN90" s="9"/>
       <c r="AO90" s="9"/>
     </row>
-    <row r="91" hidden="1" spans="1:41">
+    <row r="91" spans="1:41">
       <c r="A91" s="4" t="s">
         <v>278</v>
       </c>
@@ -8698,7 +8690,7 @@
       <c r="AN91" s="9"/>
       <c r="AO91" s="9"/>
     </row>
-    <row r="92" hidden="1" spans="1:41">
+    <row r="92" spans="1:41">
       <c r="A92" s="4" t="s">
         <v>281</v>
       </c>
@@ -8755,7 +8747,7 @@
       <c r="AN92" s="9"/>
       <c r="AO92" s="9"/>
     </row>
-    <row r="93" hidden="1" spans="1:41">
+    <row r="93" spans="1:41">
       <c r="A93" s="4" t="s">
         <v>283</v>
       </c>
@@ -8812,7 +8804,7 @@
       <c r="AN93" s="9"/>
       <c r="AO93" s="9"/>
     </row>
-    <row r="94" hidden="1" spans="1:41">
+    <row r="94" spans="1:41">
       <c r="A94" s="4" t="s">
         <v>285</v>
       </c>
@@ -8869,7 +8861,7 @@
       <c r="AN94" s="9"/>
       <c r="AO94" s="9"/>
     </row>
-    <row r="95" hidden="1" spans="1:41">
+    <row r="95" spans="1:41">
       <c r="A95" s="4" t="s">
         <v>287</v>
       </c>
@@ -8926,7 +8918,7 @@
       <c r="AN95" s="9"/>
       <c r="AO95" s="9"/>
     </row>
-    <row r="96" hidden="1" spans="1:41">
+    <row r="96" spans="1:41">
       <c r="A96" s="4" t="s">
         <v>289</v>
       </c>
@@ -8983,7 +8975,7 @@
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
     </row>
-    <row r="97" hidden="1" spans="1:41">
+    <row r="97" spans="1:41">
       <c r="A97" s="4" t="s">
         <v>291</v>
       </c>
@@ -9040,7 +9032,7 @@
       <c r="AN97" s="9"/>
       <c r="AO97" s="9"/>
     </row>
-    <row r="98" hidden="1" spans="1:41">
+    <row r="98" spans="1:41">
       <c r="A98" s="4" t="s">
         <v>293</v>
       </c>
@@ -9097,7 +9089,7 @@
       <c r="AN98" s="9"/>
       <c r="AO98" s="9"/>
     </row>
-    <row r="99" hidden="1" spans="1:41">
+    <row r="99" spans="1:41">
       <c r="A99" s="4" t="s">
         <v>295</v>
       </c>
@@ -9154,7 +9146,7 @@
       <c r="AN99" s="9"/>
       <c r="AO99" s="9"/>
     </row>
-    <row r="100" hidden="1" spans="1:41">
+    <row r="100" spans="1:41">
       <c r="A100" s="4" t="s">
         <v>297</v>
       </c>
@@ -9211,7 +9203,7 @@
       <c r="AN100" s="9"/>
       <c r="AO100" s="9"/>
     </row>
-    <row r="101" hidden="1" spans="1:41">
+    <row r="101" spans="1:41">
       <c r="A101" s="4" t="s">
         <v>300</v>
       </c>
@@ -9268,7 +9260,7 @@
       <c r="AN101" s="9"/>
       <c r="AO101" s="9"/>
     </row>
-    <row r="102" hidden="1" spans="1:41">
+    <row r="102" spans="1:41">
       <c r="A102" s="4" t="s">
         <v>302</v>
       </c>
@@ -9325,7 +9317,7 @@
       <c r="AN102" s="9"/>
       <c r="AO102" s="9"/>
     </row>
-    <row r="103" hidden="1" spans="1:41">
+    <row r="103" spans="1:41">
       <c r="A103" s="4" t="s">
         <v>304</v>
       </c>
@@ -9382,7 +9374,7 @@
       <c r="AN103" s="9"/>
       <c r="AO103" s="9"/>
     </row>
-    <row r="104" hidden="1" spans="1:41">
+    <row r="104" spans="1:41">
       <c r="A104" s="4" t="s">
         <v>307</v>
       </c>
@@ -9439,7 +9431,7 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9"/>
     </row>
-    <row r="105" hidden="1" spans="1:41">
+    <row r="105" spans="1:41">
       <c r="A105" s="4" t="s">
         <v>310</v>
       </c>
@@ -9496,7 +9488,7 @@
       <c r="AN105" s="9"/>
       <c r="AO105" s="9"/>
     </row>
-    <row r="106" hidden="1" spans="1:41">
+    <row r="106" spans="1:41">
       <c r="A106" s="4" t="s">
         <v>312</v>
       </c>
@@ -9553,7 +9545,7 @@
       <c r="AN106" s="9"/>
       <c r="AO106" s="9"/>
     </row>
-    <row r="107" hidden="1" spans="1:41">
+    <row r="107" spans="1:41">
       <c r="A107" s="4" t="s">
         <v>315</v>
       </c>
@@ -9610,7 +9602,7 @@
       <c r="AN107" s="9"/>
       <c r="AO107" s="9"/>
     </row>
-    <row r="108" hidden="1" spans="1:41">
+    <row r="108" spans="1:41">
       <c r="A108" s="4" t="s">
         <v>318</v>
       </c>
@@ -9667,7 +9659,7 @@
       <c r="AN108" s="9"/>
       <c r="AO108" s="9"/>
     </row>
-    <row r="109" hidden="1" spans="1:41">
+    <row r="109" spans="1:41">
       <c r="A109" s="4" t="s">
         <v>320</v>
       </c>
@@ -9781,7 +9773,7 @@
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
     </row>
-    <row r="111" hidden="1" spans="1:41">
+    <row r="111" spans="1:41">
       <c r="A111" s="4" t="s">
         <v>324</v>
       </c>
@@ -9838,7 +9830,7 @@
       <c r="AN111" s="9"/>
       <c r="AO111" s="9"/>
     </row>
-    <row r="112" hidden="1" spans="1:41">
+    <row r="112" spans="1:41">
       <c r="A112" s="4" t="s">
         <v>327</v>
       </c>
@@ -9895,7 +9887,7 @@
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
     </row>
-    <row r="113" hidden="1" spans="1:41">
+    <row r="113" spans="1:41">
       <c r="A113" s="4" t="s">
         <v>329</v>
       </c>
@@ -9952,7 +9944,7 @@
       <c r="AN113" s="9"/>
       <c r="AO113" s="9"/>
     </row>
-    <row r="114" hidden="1" spans="1:41">
+    <row r="114" spans="1:41">
       <c r="A114" s="4" t="s">
         <v>332</v>
       </c>
@@ -10009,7 +10001,7 @@
       <c r="AN114" s="9"/>
       <c r="AO114" s="9"/>
     </row>
-    <row r="115" hidden="1" spans="1:41">
+    <row r="115" spans="1:41">
       <c r="A115" s="4" t="s">
         <v>334</v>
       </c>
@@ -10066,7 +10058,7 @@
       <c r="AN115" s="9"/>
       <c r="AO115" s="9"/>
     </row>
-    <row r="116" hidden="1" spans="1:41">
+    <row r="116" spans="1:41">
       <c r="A116" s="4" t="s">
         <v>336</v>
       </c>
@@ -10123,7 +10115,7 @@
       <c r="AN116" s="9"/>
       <c r="AO116" s="9"/>
     </row>
-    <row r="117" hidden="1" spans="1:41">
+    <row r="117" spans="1:41">
       <c r="A117" s="4" t="s">
         <v>339</v>
       </c>
@@ -10180,7 +10172,7 @@
       <c r="AN117" s="9"/>
       <c r="AO117" s="9"/>
     </row>
-    <row r="118" hidden="1" spans="1:41">
+    <row r="118" spans="1:41">
       <c r="A118" s="4" t="s">
         <v>341</v>
       </c>
@@ -10237,7 +10229,7 @@
       <c r="AN118" s="9"/>
       <c r="AO118" s="9"/>
     </row>
-    <row r="119" hidden="1" spans="1:41">
+    <row r="119" spans="1:41">
       <c r="A119" s="4" t="s">
         <v>343</v>
       </c>
@@ -10294,7 +10286,7 @@
       <c r="AN119" s="9"/>
       <c r="AO119" s="9"/>
     </row>
-    <row r="120" hidden="1" spans="1:41">
+    <row r="120" spans="1:41">
       <c r="A120" s="4" t="s">
         <v>346</v>
       </c>
@@ -10351,7 +10343,7 @@
       <c r="AN120" s="9"/>
       <c r="AO120" s="9"/>
     </row>
-    <row r="121" hidden="1" spans="1:41">
+    <row r="121" spans="1:41">
       <c r="A121" s="4" t="s">
         <v>348</v>
       </c>
@@ -10408,7 +10400,7 @@
       <c r="AN121" s="9"/>
       <c r="AO121" s="9"/>
     </row>
-    <row r="122" hidden="1" spans="1:41">
+    <row r="122" spans="1:41">
       <c r="A122" s="4" t="s">
         <v>350</v>
       </c>
@@ -10465,7 +10457,7 @@
       <c r="AN122" s="9"/>
       <c r="AO122" s="9"/>
     </row>
-    <row r="123" hidden="1" spans="1:41">
+    <row r="123" spans="1:41">
       <c r="A123" s="4" t="s">
         <v>352</v>
       </c>
@@ -10522,7 +10514,7 @@
       <c r="AN123" s="9"/>
       <c r="AO123" s="9"/>
     </row>
-    <row r="124" hidden="1" spans="1:41">
+    <row r="124" spans="1:41">
       <c r="A124" s="4" t="s">
         <v>354</v>
       </c>
@@ -10579,7 +10571,7 @@
       <c r="AN124" s="9"/>
       <c r="AO124" s="9"/>
     </row>
-    <row r="125" hidden="1" spans="1:41">
+    <row r="125" spans="1:41">
       <c r="A125" s="4" t="s">
         <v>357</v>
       </c>
@@ -10636,7 +10628,7 @@
       <c r="AN125" s="9"/>
       <c r="AO125" s="9"/>
     </row>
-    <row r="126" hidden="1" spans="1:41">
+    <row r="126" spans="1:41">
       <c r="A126" s="4" t="s">
         <v>359</v>
       </c>
@@ -10693,7 +10685,7 @@
       <c r="AN126" s="9"/>
       <c r="AO126" s="9"/>
     </row>
-    <row r="127" hidden="1" spans="1:41">
+    <row r="127" spans="1:41">
       <c r="A127" s="4" t="s">
         <v>362</v>
       </c>
@@ -10750,7 +10742,7 @@
       <c r="AN127" s="9"/>
       <c r="AO127" s="9"/>
     </row>
-    <row r="128" hidden="1" spans="1:41">
+    <row r="128" spans="1:41">
       <c r="A128" s="4" t="s">
         <v>364</v>
       </c>
@@ -10807,7 +10799,7 @@
       <c r="AN128" s="9"/>
       <c r="AO128" s="9"/>
     </row>
-    <row r="129" hidden="1" spans="1:41">
+    <row r="129" spans="1:41">
       <c r="A129" s="4" t="s">
         <v>366</v>
       </c>
@@ -10864,7 +10856,7 @@
       <c r="AN129" s="9"/>
       <c r="AO129" s="9"/>
     </row>
-    <row r="130" hidden="1" spans="1:41">
+    <row r="130" spans="1:41">
       <c r="A130" s="4" t="s">
         <v>368</v>
       </c>
@@ -10921,7 +10913,7 @@
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
     </row>
-    <row r="131" hidden="1" spans="1:41">
+    <row r="131" spans="1:41">
       <c r="A131" s="4" t="s">
         <v>370</v>
       </c>
@@ -10978,7 +10970,7 @@
       <c r="AN131" s="9"/>
       <c r="AO131" s="9"/>
     </row>
-    <row r="132" hidden="1" spans="1:41">
+    <row r="132" spans="1:41">
       <c r="A132" s="4" t="s">
         <v>372</v>
       </c>
@@ -11035,7 +11027,7 @@
       <c r="AN132" s="9"/>
       <c r="AO132" s="9"/>
     </row>
-    <row r="133" hidden="1" spans="1:41">
+    <row r="133" spans="1:41">
       <c r="A133" s="4" t="s">
         <v>375</v>
       </c>
@@ -11092,7 +11084,7 @@
       <c r="AN133" s="9"/>
       <c r="AO133" s="9"/>
     </row>
-    <row r="134" hidden="1" spans="1:41">
+    <row r="134" spans="1:41">
       <c r="A134" s="4" t="s">
         <v>377</v>
       </c>
@@ -11149,7 +11141,7 @@
       <c r="AN134" s="9"/>
       <c r="AO134" s="9"/>
     </row>
-    <row r="135" hidden="1" spans="1:41">
+    <row r="135" spans="1:41">
       <c r="A135" s="4" t="s">
         <v>379</v>
       </c>
@@ -11206,7 +11198,7 @@
       <c r="AN135" s="9"/>
       <c r="AO135" s="9"/>
     </row>
-    <row r="136" hidden="1" spans="1:41">
+    <row r="136" spans="1:41">
       <c r="A136" s="4" t="s">
         <v>382</v>
       </c>
@@ -11263,7 +11255,7 @@
       <c r="AN136" s="9"/>
       <c r="AO136" s="9"/>
     </row>
-    <row r="137" hidden="1" spans="1:41">
+    <row r="137" spans="1:41">
       <c r="A137" s="4" t="s">
         <v>385</v>
       </c>
@@ -11320,7 +11312,7 @@
       <c r="AN137" s="9"/>
       <c r="AO137" s="9"/>
     </row>
-    <row r="138" hidden="1" spans="1:41">
+    <row r="138" spans="1:41">
       <c r="A138" s="4" t="s">
         <v>388</v>
       </c>
@@ -11377,7 +11369,7 @@
       <c r="AN138" s="9"/>
       <c r="AO138" s="9"/>
     </row>
-    <row r="139" hidden="1" spans="1:41">
+    <row r="139" spans="1:41">
       <c r="A139" s="4" t="s">
         <v>390</v>
       </c>
@@ -11434,7 +11426,7 @@
       <c r="AN139" s="9"/>
       <c r="AO139" s="9"/>
     </row>
-    <row r="140" hidden="1" spans="1:41">
+    <row r="140" spans="1:41">
       <c r="A140" s="4" t="s">
         <v>392</v>
       </c>
@@ -11491,7 +11483,7 @@
       <c r="AN140" s="9"/>
       <c r="AO140" s="9"/>
     </row>
-    <row r="141" hidden="1" spans="1:41">
+    <row r="141" spans="1:41">
       <c r="A141" s="4" t="s">
         <v>394</v>
       </c>
@@ -11548,7 +11540,7 @@
       <c r="AN141" s="9"/>
       <c r="AO141" s="9"/>
     </row>
-    <row r="142" hidden="1" spans="1:41">
+    <row r="142" spans="1:41">
       <c r="A142" s="4" t="s">
         <v>396</v>
       </c>
@@ -11605,7 +11597,7 @@
       <c r="AN142" s="9"/>
       <c r="AO142" s="9"/>
     </row>
-    <row r="143" hidden="1" spans="1:41">
+    <row r="143" spans="1:41">
       <c r="A143" s="4" t="s">
         <v>399</v>
       </c>
@@ -11662,7 +11654,7 @@
       <c r="AN143" s="9"/>
       <c r="AO143" s="9"/>
     </row>
-    <row r="144" hidden="1" spans="1:41">
+    <row r="144" spans="1:41">
       <c r="A144" s="4" t="s">
         <v>401</v>
       </c>
@@ -11719,7 +11711,7 @@
       <c r="AN144" s="9"/>
       <c r="AO144" s="9"/>
     </row>
-    <row r="145" hidden="1" spans="1:41">
+    <row r="145" spans="1:41">
       <c r="A145" s="4" t="s">
         <v>403</v>
       </c>
@@ -11776,7 +11768,7 @@
       <c r="AN145" s="9"/>
       <c r="AO145" s="9"/>
     </row>
-    <row r="146" hidden="1" spans="1:41">
+    <row r="146" spans="1:41">
       <c r="A146" s="4" t="s">
         <v>405</v>
       </c>
@@ -11833,7 +11825,7 @@
       <c r="AN146" s="9"/>
       <c r="AO146" s="9"/>
     </row>
-    <row r="147" hidden="1" spans="1:41">
+    <row r="147" spans="1:41">
       <c r="A147" s="4" t="s">
         <v>407</v>
       </c>
@@ -11890,7 +11882,7 @@
       <c r="AN147" s="9"/>
       <c r="AO147" s="9"/>
     </row>
-    <row r="148" hidden="1" spans="1:41">
+    <row r="148" spans="1:41">
       <c r="A148" s="4" t="s">
         <v>409</v>
       </c>
@@ -11947,7 +11939,7 @@
       <c r="AN148" s="9"/>
       <c r="AO148" s="9"/>
     </row>
-    <row r="149" hidden="1" spans="1:41">
+    <row r="149" spans="1:41">
       <c r="A149" s="4" t="s">
         <v>412</v>
       </c>
@@ -12004,7 +11996,7 @@
       <c r="AN149" s="9"/>
       <c r="AO149" s="9"/>
     </row>
-    <row r="150" hidden="1" spans="1:41">
+    <row r="150" spans="1:41">
       <c r="A150" s="4" t="s">
         <v>414</v>
       </c>
@@ -12061,7 +12053,7 @@
       <c r="AN150" s="9"/>
       <c r="AO150" s="9"/>
     </row>
-    <row r="151" hidden="1" spans="1:41">
+    <row r="151" spans="1:41">
       <c r="A151" s="4" t="s">
         <v>416</v>
       </c>
@@ -12118,7 +12110,7 @@
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
     </row>
-    <row r="152" hidden="1" spans="1:41">
+    <row r="152" spans="1:41">
       <c r="A152" s="4" t="s">
         <v>418</v>
       </c>
@@ -12175,7 +12167,7 @@
       <c r="AN152" s="9"/>
       <c r="AO152" s="9"/>
     </row>
-    <row r="153" hidden="1" spans="1:41">
+    <row r="153" spans="1:41">
       <c r="A153" s="4" t="s">
         <v>420</v>
       </c>
@@ -12232,7 +12224,7 @@
       <c r="AN153" s="9"/>
       <c r="AO153" s="9"/>
     </row>
-    <row r="154" hidden="1" spans="1:41">
+    <row r="154" spans="1:41">
       <c r="A154" s="4" t="s">
         <v>422</v>
       </c>
@@ -12289,7 +12281,7 @@
       <c r="AN154" s="9"/>
       <c r="AO154" s="9"/>
     </row>
-    <row r="155" hidden="1" spans="1:41">
+    <row r="155" spans="1:41">
       <c r="A155" s="4" t="s">
         <v>424</v>
       </c>
@@ -12346,7 +12338,7 @@
       <c r="AN155" s="9"/>
       <c r="AO155" s="9"/>
     </row>
-    <row r="156" hidden="1" spans="1:41">
+    <row r="156" spans="1:41">
       <c r="A156" s="4" t="s">
         <v>426</v>
       </c>
@@ -12403,7 +12395,7 @@
       <c r="AN156" s="9"/>
       <c r="AO156" s="9"/>
     </row>
-    <row r="157" hidden="1" spans="1:41">
+    <row r="157" spans="1:41">
       <c r="A157" s="4" t="s">
         <v>429</v>
       </c>
@@ -12460,7 +12452,7 @@
       <c r="AN157" s="9"/>
       <c r="AO157" s="9"/>
     </row>
-    <row r="158" hidden="1" spans="1:41">
+    <row r="158" spans="1:41">
       <c r="A158" s="4" t="s">
         <v>431</v>
       </c>
@@ -12517,7 +12509,7 @@
       <c r="AN158" s="9"/>
       <c r="AO158" s="9"/>
     </row>
-    <row r="159" hidden="1" spans="1:41">
+    <row r="159" spans="1:41">
       <c r="A159" s="4" t="s">
         <v>434</v>
       </c>
@@ -12574,7 +12566,7 @@
       <c r="AN159" s="9"/>
       <c r="AO159" s="9"/>
     </row>
-    <row r="160" hidden="1" spans="1:41">
+    <row r="160" spans="1:41">
       <c r="A160" s="4" t="s">
         <v>436</v>
       </c>
@@ -12631,7 +12623,7 @@
       <c r="AN160" s="9"/>
       <c r="AO160" s="9"/>
     </row>
-    <row r="161" hidden="1" spans="1:41">
+    <row r="161" spans="1:41">
       <c r="A161" s="4" t="s">
         <v>439</v>
       </c>
@@ -12688,7 +12680,7 @@
       <c r="AN161" s="9"/>
       <c r="AO161" s="9"/>
     </row>
-    <row r="162" hidden="1" spans="1:41">
+    <row r="162" spans="1:41">
       <c r="A162" s="4" t="s">
         <v>442</v>
       </c>
@@ -12745,7 +12737,7 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9"/>
     </row>
-    <row r="163" hidden="1" spans="1:41">
+    <row r="163" spans="1:41">
       <c r="A163" s="4" t="s">
         <v>444</v>
       </c>
@@ -12802,7 +12794,7 @@
       <c r="AN163" s="9"/>
       <c r="AO163" s="9"/>
     </row>
-    <row r="164" hidden="1" spans="1:41">
+    <row r="164" spans="1:41">
       <c r="A164" s="4" t="s">
         <v>447</v>
       </c>
@@ -12859,7 +12851,7 @@
       <c r="AN164" s="9"/>
       <c r="AO164" s="9"/>
     </row>
-    <row r="165" hidden="1" spans="1:41">
+    <row r="165" spans="1:41">
       <c r="A165" s="4" t="s">
         <v>450</v>
       </c>
@@ -12916,7 +12908,7 @@
       <c r="AN165" s="9"/>
       <c r="AO165" s="9"/>
     </row>
-    <row r="166" hidden="1" spans="1:41">
+    <row r="166" spans="1:41">
       <c r="A166" s="4" t="s">
         <v>452</v>
       </c>
@@ -12973,7 +12965,7 @@
       <c r="AN166" s="9"/>
       <c r="AO166" s="9"/>
     </row>
-    <row r="167" hidden="1" spans="1:41">
+    <row r="167" spans="1:41">
       <c r="A167" s="4" t="s">
         <v>455</v>
       </c>
@@ -13030,7 +13022,7 @@
       <c r="AN167" s="9"/>
       <c r="AO167" s="9"/>
     </row>
-    <row r="168" hidden="1" spans="1:41">
+    <row r="168" spans="1:41">
       <c r="A168" s="4" t="s">
         <v>458</v>
       </c>
@@ -13087,7 +13079,7 @@
       <c r="AN168" s="9"/>
       <c r="AO168" s="9"/>
     </row>
-    <row r="169" hidden="1" spans="1:41">
+    <row r="169" spans="1:41">
       <c r="A169" s="4" t="s">
         <v>461</v>
       </c>
@@ -13144,7 +13136,7 @@
       <c r="AN169" s="9"/>
       <c r="AO169" s="9"/>
     </row>
-    <row r="170" hidden="1" spans="1:41">
+    <row r="170" spans="1:41">
       <c r="A170" s="4" t="s">
         <v>463</v>
       </c>
@@ -13201,7 +13193,7 @@
       <c r="AN170" s="9"/>
       <c r="AO170" s="9"/>
     </row>
-    <row r="171" hidden="1" spans="1:41">
+    <row r="171" spans="1:41">
       <c r="A171" s="4" t="s">
         <v>465</v>
       </c>
@@ -13258,7 +13250,7 @@
       <c r="AN171" s="9"/>
       <c r="AO171" s="9"/>
     </row>
-    <row r="172" hidden="1" spans="1:41">
+    <row r="172" spans="1:41">
       <c r="A172" s="4" t="s">
         <v>468</v>
       </c>
@@ -13315,7 +13307,7 @@
       <c r="AN172" s="9"/>
       <c r="AO172" s="9"/>
     </row>
-    <row r="173" hidden="1" spans="1:41">
+    <row r="173" spans="1:41">
       <c r="A173" s="4" t="s">
         <v>470</v>
       </c>
@@ -13372,7 +13364,7 @@
       <c r="AN173" s="9"/>
       <c r="AO173" s="9"/>
     </row>
-    <row r="174" hidden="1" spans="1:41">
+    <row r="174" spans="1:41">
       <c r="A174" s="4" t="s">
         <v>473</v>
       </c>
@@ -13429,7 +13421,7 @@
       <c r="AN174" s="9"/>
       <c r="AO174" s="9"/>
     </row>
-    <row r="175" hidden="1" spans="1:41">
+    <row r="175" spans="1:41">
       <c r="A175" s="4" t="s">
         <v>476</v>
       </c>
@@ -13486,7 +13478,7 @@
       <c r="AN175" s="9"/>
       <c r="AO175" s="9"/>
     </row>
-    <row r="176" hidden="1" spans="1:41">
+    <row r="176" spans="1:41">
       <c r="A176" s="4" t="s">
         <v>479</v>
       </c>
@@ -13543,7 +13535,7 @@
       <c r="AN176" s="9"/>
       <c r="AO176" s="9"/>
     </row>
-    <row r="177" hidden="1" spans="1:41">
+    <row r="177" spans="1:41">
       <c r="A177" s="4" t="s">
         <v>482</v>
       </c>
@@ -13600,7 +13592,7 @@
       <c r="AN177" s="9"/>
       <c r="AO177" s="9"/>
     </row>
-    <row r="178" hidden="1" spans="1:41">
+    <row r="178" spans="1:41">
       <c r="A178" s="4" t="s">
         <v>484</v>
       </c>
@@ -13657,7 +13649,7 @@
       <c r="AN178" s="9"/>
       <c r="AO178" s="9"/>
     </row>
-    <row r="179" hidden="1" spans="1:41">
+    <row r="179" spans="1:41">
       <c r="A179" s="4" t="s">
         <v>486</v>
       </c>
@@ -13771,7 +13763,7 @@
       <c r="AN180" s="9"/>
       <c r="AO180" s="9"/>
     </row>
-    <row r="181" hidden="1" spans="1:41">
+    <row r="181" spans="1:41">
       <c r="A181" s="4" t="s">
         <v>491</v>
       </c>
@@ -13828,7 +13820,7 @@
       <c r="AN181" s="9"/>
       <c r="AO181" s="9"/>
     </row>
-    <row r="182" hidden="1" spans="1:41">
+    <row r="182" spans="1:41">
       <c r="A182" s="4" t="s">
         <v>493</v>
       </c>
@@ -13885,7 +13877,7 @@
       <c r="AN182" s="9"/>
       <c r="AO182" s="9"/>
     </row>
-    <row r="183" hidden="1" spans="1:41">
+    <row r="183" spans="1:41">
       <c r="A183" s="4" t="s">
         <v>495</v>
       </c>
@@ -13942,7 +13934,7 @@
       <c r="AN183" s="9"/>
       <c r="AO183" s="9"/>
     </row>
-    <row r="184" hidden="1" spans="1:41">
+    <row r="184" spans="1:41">
       <c r="A184" s="4" t="s">
         <v>497</v>
       </c>
@@ -13999,7 +13991,7 @@
       <c r="AN184" s="9"/>
       <c r="AO184" s="9"/>
     </row>
-    <row r="185" hidden="1" spans="1:41">
+    <row r="185" spans="1:41">
       <c r="A185" s="4" t="s">
         <v>500</v>
       </c>
@@ -14056,7 +14048,7 @@
       <c r="AN185" s="9"/>
       <c r="AO185" s="9"/>
     </row>
-    <row r="186" hidden="1" spans="1:41">
+    <row r="186" spans="1:41">
       <c r="A186" s="4" t="s">
         <v>503</v>
       </c>
@@ -14113,7 +14105,7 @@
       <c r="AN186" s="9"/>
       <c r="AO186" s="9"/>
     </row>
-    <row r="187" hidden="1" spans="1:41">
+    <row r="187" spans="1:41">
       <c r="A187" s="4" t="s">
         <v>506</v>
       </c>
@@ -14170,7 +14162,7 @@
       <c r="AN187" s="9"/>
       <c r="AO187" s="9"/>
     </row>
-    <row r="188" hidden="1" spans="1:41">
+    <row r="188" spans="1:41">
       <c r="A188" s="4" t="s">
         <v>509</v>
       </c>
@@ -14227,7 +14219,7 @@
       <c r="AN188" s="9"/>
       <c r="AO188" s="9"/>
     </row>
-    <row r="189" hidden="1" spans="1:41">
+    <row r="189" spans="1:41">
       <c r="A189" s="4" t="s">
         <v>511</v>
       </c>
@@ -14284,7 +14276,7 @@
       <c r="AN189" s="9"/>
       <c r="AO189" s="9"/>
     </row>
-    <row r="190" hidden="1" spans="1:41">
+    <row r="190" spans="1:41">
       <c r="A190" s="4" t="s">
         <v>513</v>
       </c>
@@ -14341,7 +14333,7 @@
       <c r="AN190" s="9"/>
       <c r="AO190" s="9"/>
     </row>
-    <row r="191" hidden="1" spans="1:41">
+    <row r="191" spans="1:41">
       <c r="A191" s="4" t="s">
         <v>515</v>
       </c>
@@ -14398,7 +14390,7 @@
       <c r="AN191" s="9"/>
       <c r="AO191" s="9"/>
     </row>
-    <row r="192" hidden="1" spans="1:41">
+    <row r="192" spans="1:41">
       <c r="A192" s="4" t="s">
         <v>517</v>
       </c>
@@ -14455,7 +14447,7 @@
       <c r="AN192" s="9"/>
       <c r="AO192" s="9"/>
     </row>
-    <row r="193" hidden="1" spans="1:41">
+    <row r="193" spans="1:41">
       <c r="A193" s="4" t="s">
         <v>520</v>
       </c>
@@ -14512,7 +14504,7 @@
       <c r="AN193" s="9"/>
       <c r="AO193" s="9"/>
     </row>
-    <row r="194" hidden="1" spans="1:41">
+    <row r="194" spans="1:41">
       <c r="A194" s="4" t="s">
         <v>522</v>
       </c>
@@ -14569,7 +14561,7 @@
       <c r="AN194" s="9"/>
       <c r="AO194" s="9"/>
     </row>
-    <row r="195" hidden="1" spans="1:41">
+    <row r="195" spans="1:41">
       <c r="A195" s="4" t="s">
         <v>524</v>
       </c>
@@ -14626,7 +14618,7 @@
       <c r="AN195" s="9"/>
       <c r="AO195" s="9"/>
     </row>
-    <row r="196" hidden="1" spans="1:41">
+    <row r="196" spans="1:41">
       <c r="A196" s="4" t="s">
         <v>527</v>
       </c>
@@ -14683,7 +14675,7 @@
       <c r="AN196" s="9"/>
       <c r="AO196" s="9"/>
     </row>
-    <row r="197" hidden="1" spans="1:41">
+    <row r="197" spans="1:41">
       <c r="A197" s="4" t="s">
         <v>530</v>
       </c>
@@ -14740,7 +14732,7 @@
       <c r="AN197" s="9"/>
       <c r="AO197" s="9"/>
     </row>
-    <row r="198" hidden="1" spans="1:41">
+    <row r="198" spans="1:41">
       <c r="A198" s="4" t="s">
         <v>532</v>
       </c>
@@ -14797,7 +14789,7 @@
       <c r="AN198" s="9"/>
       <c r="AO198" s="9"/>
     </row>
-    <row r="199" hidden="1" spans="1:41">
+    <row r="199" spans="1:41">
       <c r="A199" s="4" t="s">
         <v>534</v>
       </c>
@@ -14854,7 +14846,7 @@
       <c r="AN199" s="9"/>
       <c r="AO199" s="9"/>
     </row>
-    <row r="200" hidden="1" spans="1:41">
+    <row r="200" spans="1:41">
       <c r="A200" s="4" t="s">
         <v>537</v>
       </c>
@@ -14911,7 +14903,7 @@
       <c r="AN200" s="9"/>
       <c r="AO200" s="9"/>
     </row>
-    <row r="201" hidden="1" spans="1:41">
+    <row r="201" spans="1:41">
       <c r="A201" s="4" t="s">
         <v>540</v>
       </c>
@@ -14968,7 +14960,7 @@
       <c r="AN201" s="9"/>
       <c r="AO201" s="9"/>
     </row>
-    <row r="202" hidden="1" spans="1:41">
+    <row r="202" spans="1:41">
       <c r="A202" s="4" t="s">
         <v>542</v>
       </c>
@@ -15025,7 +15017,7 @@
       <c r="AN202" s="9"/>
       <c r="AO202" s="9"/>
     </row>
-    <row r="203" hidden="1" spans="1:41">
+    <row r="203" spans="1:41">
       <c r="A203" s="4" t="s">
         <v>545</v>
       </c>
@@ -15082,7 +15074,7 @@
       <c r="AN203" s="9"/>
       <c r="AO203" s="9"/>
     </row>
-    <row r="204" hidden="1" spans="1:41">
+    <row r="204" spans="1:41">
       <c r="A204" s="4" t="s">
         <v>547</v>
       </c>
@@ -15139,7 +15131,7 @@
       <c r="AN204" s="9"/>
       <c r="AO204" s="9"/>
     </row>
-    <row r="205" hidden="1" spans="1:41">
+    <row r="205" spans="1:41">
       <c r="A205" s="4" t="s">
         <v>550</v>
       </c>
@@ -15196,7 +15188,7 @@
       <c r="AN205" s="9"/>
       <c r="AO205" s="9"/>
     </row>
-    <row r="206" hidden="1" spans="1:41">
+    <row r="206" spans="1:41">
       <c r="A206" s="4" t="s">
         <v>553</v>
       </c>
@@ -15253,7 +15245,7 @@
       <c r="AN206" s="9"/>
       <c r="AO206" s="9"/>
     </row>
-    <row r="207" hidden="1" spans="1:41">
+    <row r="207" spans="1:41">
       <c r="A207" s="4" t="s">
         <v>555</v>
       </c>
@@ -15310,7 +15302,7 @@
       <c r="AN207" s="9"/>
       <c r="AO207" s="9"/>
     </row>
-    <row r="208" hidden="1" spans="1:41">
+    <row r="208" spans="1:41">
       <c r="A208" s="4" t="s">
         <v>557</v>
       </c>
@@ -15367,7 +15359,7 @@
       <c r="AN208" s="9"/>
       <c r="AO208" s="9"/>
     </row>
-    <row r="209" hidden="1" spans="1:41">
+    <row r="209" spans="1:41">
       <c r="A209" s="4" t="s">
         <v>560</v>
       </c>
@@ -15424,7 +15416,7 @@
       <c r="AN209" s="9"/>
       <c r="AO209" s="9"/>
     </row>
-    <row r="210" hidden="1" spans="1:41">
+    <row r="210" spans="1:41">
       <c r="A210" s="4" t="s">
         <v>563</v>
       </c>
@@ -15481,7 +15473,7 @@
       <c r="AN210" s="9"/>
       <c r="AO210" s="9"/>
     </row>
-    <row r="211" hidden="1" spans="1:41">
+    <row r="211" spans="1:41">
       <c r="A211" s="4" t="s">
         <v>565</v>
       </c>
@@ -15538,7 +15530,7 @@
       <c r="AN211" s="9"/>
       <c r="AO211" s="9"/>
     </row>
-    <row r="212" hidden="1" spans="1:41">
+    <row r="212" spans="1:41">
       <c r="A212" s="4" t="s">
         <v>568</v>
       </c>
@@ -15595,7 +15587,7 @@
       <c r="AN212" s="9"/>
       <c r="AO212" s="9"/>
     </row>
-    <row r="213" hidden="1" spans="1:41">
+    <row r="213" spans="1:41">
       <c r="A213" s="4" t="s">
         <v>570</v>
       </c>
@@ -15652,7 +15644,7 @@
       <c r="AN213" s="9"/>
       <c r="AO213" s="9"/>
     </row>
-    <row r="214" hidden="1" spans="1:41">
+    <row r="214" spans="1:41">
       <c r="A214" s="4" t="s">
         <v>573</v>
       </c>
@@ -15709,7 +15701,7 @@
       <c r="AN214" s="9"/>
       <c r="AO214" s="9"/>
     </row>
-    <row r="215" hidden="1" spans="1:41">
+    <row r="215" spans="1:41">
       <c r="A215" s="4" t="s">
         <v>576</v>
       </c>
@@ -15766,7 +15758,7 @@
       <c r="AN215" s="9"/>
       <c r="AO215" s="9"/>
     </row>
-    <row r="216" hidden="1" spans="1:41">
+    <row r="216" spans="1:41">
       <c r="A216" s="4" t="s">
         <v>579</v>
       </c>
@@ -15823,7 +15815,7 @@
       <c r="AN216" s="9"/>
       <c r="AO216" s="9"/>
     </row>
-    <row r="217" hidden="1" spans="1:41">
+    <row r="217" spans="1:41">
       <c r="A217" s="4" t="s">
         <v>581</v>
       </c>
@@ -15880,7 +15872,7 @@
       <c r="AN217" s="9"/>
       <c r="AO217" s="9"/>
     </row>
-    <row r="218" hidden="1" spans="1:41">
+    <row r="218" spans="1:41">
       <c r="A218" s="4" t="s">
         <v>583</v>
       </c>
@@ -15937,7 +15929,7 @@
       <c r="AN218" s="9"/>
       <c r="AO218" s="9"/>
     </row>
-    <row r="219" hidden="1" spans="1:41">
+    <row r="219" spans="1:41">
       <c r="A219" s="4" t="s">
         <v>585</v>
       </c>
@@ -15994,7 +15986,7 @@
       <c r="AN219" s="9"/>
       <c r="AO219" s="9"/>
     </row>
-    <row r="220" hidden="1" spans="1:41">
+    <row r="220" spans="1:41">
       <c r="A220" s="4" t="s">
         <v>588</v>
       </c>
@@ -16051,7 +16043,7 @@
       <c r="AN220" s="9"/>
       <c r="AO220" s="9"/>
     </row>
-    <row r="221" hidden="1" spans="1:41">
+    <row r="221" spans="1:41">
       <c r="A221" s="4" t="s">
         <v>590</v>
       </c>
@@ -16108,7 +16100,7 @@
       <c r="AN221" s="9"/>
       <c r="AO221" s="9"/>
     </row>
-    <row r="222" hidden="1" spans="1:41">
+    <row r="222" spans="1:41">
       <c r="A222" s="4" t="s">
         <v>592</v>
       </c>
@@ -16165,7 +16157,7 @@
       <c r="AN222" s="9"/>
       <c r="AO222" s="9"/>
     </row>
-    <row r="223" hidden="1" spans="1:41">
+    <row r="223" spans="1:41">
       <c r="A223" s="4" t="s">
         <v>594</v>
       </c>
@@ -16222,7 +16214,7 @@
       <c r="AN223" s="9"/>
       <c r="AO223" s="9"/>
     </row>
-    <row r="224" hidden="1" spans="1:41">
+    <row r="224" spans="1:41">
       <c r="A224" s="4" t="s">
         <v>596</v>
       </c>
@@ -16279,7 +16271,7 @@
       <c r="AN224" s="9"/>
       <c r="AO224" s="9"/>
     </row>
-    <row r="225" hidden="1" spans="1:41">
+    <row r="225" spans="1:41">
       <c r="A225" s="4" t="s">
         <v>598</v>
       </c>
@@ -16336,7 +16328,7 @@
       <c r="AN225" s="9"/>
       <c r="AO225" s="9"/>
     </row>
-    <row r="226" hidden="1" spans="1:41">
+    <row r="226" spans="1:41">
       <c r="A226" s="4" t="s">
         <v>601</v>
       </c>
@@ -16393,7 +16385,7 @@
       <c r="AN226" s="9"/>
       <c r="AO226" s="9"/>
     </row>
-    <row r="227" hidden="1" spans="1:41">
+    <row r="227" spans="1:41">
       <c r="A227" s="4" t="s">
         <v>603</v>
       </c>
@@ -16450,7 +16442,7 @@
       <c r="AN227" s="9"/>
       <c r="AO227" s="9"/>
     </row>
-    <row r="228" hidden="1" spans="1:41">
+    <row r="228" spans="1:41">
       <c r="A228" s="4" t="s">
         <v>605</v>
       </c>
@@ -16507,7 +16499,7 @@
       <c r="AN228" s="9"/>
       <c r="AO228" s="9"/>
     </row>
-    <row r="229" hidden="1" spans="1:41">
+    <row r="229" spans="1:41">
       <c r="A229" s="4" t="s">
         <v>608</v>
       </c>
@@ -16564,7 +16556,7 @@
       <c r="AN229" s="9"/>
       <c r="AO229" s="9"/>
     </row>
-    <row r="230" hidden="1" spans="1:41">
+    <row r="230" spans="1:41">
       <c r="A230" s="4" t="s">
         <v>610</v>
       </c>
@@ -16621,7 +16613,7 @@
       <c r="AN230" s="9"/>
       <c r="AO230" s="9"/>
     </row>
-    <row r="231" hidden="1" spans="1:41">
+    <row r="231" spans="1:41">
       <c r="A231" s="4" t="s">
         <v>612</v>
       </c>
@@ -16678,7 +16670,7 @@
       <c r="AN231" s="9"/>
       <c r="AO231" s="9"/>
     </row>
-    <row r="232" hidden="1" spans="1:41">
+    <row r="232" spans="1:41">
       <c r="A232" s="4" t="s">
         <v>614</v>
       </c>
@@ -16735,7 +16727,7 @@
       <c r="AN232" s="9"/>
       <c r="AO232" s="9"/>
     </row>
-    <row r="233" hidden="1" spans="1:41">
+    <row r="233" spans="1:41">
       <c r="A233" s="4" t="s">
         <v>616</v>
       </c>
@@ -16792,7 +16784,7 @@
       <c r="AN233" s="9"/>
       <c r="AO233" s="9"/>
     </row>
-    <row r="234" hidden="1" spans="1:41">
+    <row r="234" spans="1:41">
       <c r="A234" s="4" t="s">
         <v>619</v>
       </c>
@@ -16849,7 +16841,7 @@
       <c r="AN234" s="9"/>
       <c r="AO234" s="9"/>
     </row>
-    <row r="235" hidden="1" spans="1:41">
+    <row r="235" spans="1:41">
       <c r="A235" s="4" t="s">
         <v>621</v>
       </c>
@@ -16906,7 +16898,7 @@
       <c r="AN235" s="9"/>
       <c r="AO235" s="9"/>
     </row>
-    <row r="236" hidden="1" spans="1:41">
+    <row r="236" spans="1:41">
       <c r="A236" s="4" t="s">
         <v>623</v>
       </c>
@@ -16963,7 +16955,7 @@
       <c r="AN236" s="9"/>
       <c r="AO236" s="9"/>
     </row>
-    <row r="237" hidden="1" spans="1:41">
+    <row r="237" spans="1:41">
       <c r="A237" s="4" t="s">
         <v>625</v>
       </c>
@@ -17020,7 +17012,7 @@
       <c r="AN237" s="9"/>
       <c r="AO237" s="9"/>
     </row>
-    <row r="238" hidden="1" spans="1:41">
+    <row r="238" spans="1:41">
       <c r="A238" s="4" t="s">
         <v>627</v>
       </c>
@@ -17077,7 +17069,7 @@
       <c r="AN238" s="9"/>
       <c r="AO238" s="9"/>
     </row>
-    <row r="239" hidden="1" spans="1:41">
+    <row r="239" spans="1:41">
       <c r="A239" s="4" t="s">
         <v>629</v>
       </c>
@@ -17134,7 +17126,7 @@
       <c r="AN239" s="9"/>
       <c r="AO239" s="9"/>
     </row>
-    <row r="240" hidden="1" spans="1:41">
+    <row r="240" spans="1:41">
       <c r="A240" s="4" t="s">
         <v>631</v>
       </c>
@@ -17191,7 +17183,7 @@
       <c r="AN240" s="9"/>
       <c r="AO240" s="9"/>
     </row>
-    <row r="241" hidden="1" spans="1:41">
+    <row r="241" spans="1:41">
       <c r="A241" s="4" t="s">
         <v>634</v>
       </c>
@@ -17248,7 +17240,7 @@
       <c r="AN241" s="9"/>
       <c r="AO241" s="9"/>
     </row>
-    <row r="242" hidden="1" spans="1:41">
+    <row r="242" spans="1:41">
       <c r="A242" s="4" t="s">
         <v>637</v>
       </c>
@@ -17305,7 +17297,7 @@
       <c r="AN242" s="9"/>
       <c r="AO242" s="9"/>
     </row>
-    <row r="243" hidden="1" spans="1:41">
+    <row r="243" spans="1:41">
       <c r="A243" s="4" t="s">
         <v>639</v>
       </c>
@@ -17362,7 +17354,7 @@
       <c r="AN243" s="9"/>
       <c r="AO243" s="9"/>
     </row>
-    <row r="244" hidden="1" spans="1:41">
+    <row r="244" spans="1:41">
       <c r="A244" s="4" t="s">
         <v>641</v>
       </c>
@@ -17419,7 +17411,7 @@
       <c r="AN244" s="9"/>
       <c r="AO244" s="9"/>
     </row>
-    <row r="245" hidden="1" spans="1:41">
+    <row r="245" spans="1:41">
       <c r="A245" s="4" t="s">
         <v>643</v>
       </c>
@@ -17476,7 +17468,7 @@
       <c r="AN245" s="9"/>
       <c r="AO245" s="9"/>
     </row>
-    <row r="246" hidden="1" spans="1:41">
+    <row r="246" spans="1:41">
       <c r="A246" s="4" t="s">
         <v>645</v>
       </c>
@@ -17533,7 +17525,7 @@
       <c r="AN246" s="9"/>
       <c r="AO246" s="9"/>
     </row>
-    <row r="247" hidden="1" spans="1:41">
+    <row r="247" spans="1:41">
       <c r="A247" s="4" t="s">
         <v>647</v>
       </c>
@@ -17590,7 +17582,7 @@
       <c r="AN247" s="9"/>
       <c r="AO247" s="9"/>
     </row>
-    <row r="248" hidden="1" spans="1:41">
+    <row r="248" spans="1:41">
       <c r="A248" s="4" t="s">
         <v>649</v>
       </c>
@@ -17647,7 +17639,7 @@
       <c r="AN248" s="9"/>
       <c r="AO248" s="9"/>
     </row>
-    <row r="249" hidden="1" spans="1:41">
+    <row r="249" spans="1:41">
       <c r="A249" s="4" t="s">
         <v>651</v>
       </c>
@@ -17704,7 +17696,7 @@
       <c r="AN249" s="9"/>
       <c r="AO249" s="9"/>
     </row>
-    <row r="250" hidden="1" spans="1:41">
+    <row r="250" spans="1:41">
       <c r="A250" s="4" t="s">
         <v>653</v>
       </c>
@@ -17761,7 +17753,7 @@
       <c r="AN250" s="9"/>
       <c r="AO250" s="9"/>
     </row>
-    <row r="251" hidden="1" spans="1:41">
+    <row r="251" spans="1:41">
       <c r="A251" s="4" t="s">
         <v>655</v>
       </c>
@@ -17819,11 +17811,6 @@
       <c r="AO251" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B251">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="P1:AH1"/>
@@ -17854,7 +17841,7 @@
     <mergeCell ref="AO1:AO3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
